--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_25_35.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_25_35.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3030507.77335055</v>
+        <v>3134687.407801623</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.1052283183</v>
       </c>
     </row>
     <row r="9">
@@ -659,25 +661,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>314.8245872771058</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>410.9217256534534</v>
+        <v>405.7321803957831</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,16 +712,16 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -753,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851002</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -817,13 +819,13 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>160.7365361851533</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -835,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -865,7 +867,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -880,7 +882,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>21.04905309044218</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -902,19 +904,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>307.6318019940272</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H5" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,25 +946,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>204.8328444383075</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1041,7 +1043,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>205.6826957773041</v>
       </c>
     </row>
     <row r="7">
@@ -1051,10 +1053,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1063,16 +1065,16 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1111,16 +1113,16 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>53.16168816108021</v>
       </c>
       <c r="W7" t="n">
-        <v>205.64103852534</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,16 +1132,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>141.5291223298325</v>
       </c>
       <c r="E8" t="n">
-        <v>64.92510123383819</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1148,7 +1150,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -1181,22 +1183,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1288,10 +1290,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1342,19 +1344,19 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>87.93270968653134</v>
+        <v>20.90504049871122</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1367,25 +1369,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417115</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695521</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881285</v>
+        <v>250.9057009881287</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701348</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1528,25 +1530,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>115.2302178375793</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1588,13 +1590,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>153.8420267255999</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1604,25 +1606,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417115</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695521</v>
+        <v>83.70251495695535</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881284</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701348</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1765,25 +1767,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>48.85497112745813</v>
       </c>
       <c r="E16" t="n">
-        <v>99.97427419833815</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1841,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710075</v>
@@ -1853,13 +1855,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417115</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,22 +1894,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695534</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881287</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -2008,10 +2010,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2020,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2056,10 +2058,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>159.4718642460861</v>
       </c>
       <c r="V19" t="n">
-        <v>205.6779548755971</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2090,13 +2092,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417115</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,22 +2131,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881287</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174132</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2242,22 +2244,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>47.84205650382067</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>41.74133133758863</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2366,16 +2368,16 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -2485,16 +2487,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>79.41314830963852</v>
       </c>
       <c r="I25" t="n">
-        <v>5.421623586788372</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,16 +2523,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2555,7 +2557,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710079</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2570,7 +2572,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.154082144413</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2719,19 +2721,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>9.146142788179368</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2770,7 +2772,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>132.7328787290205</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2804,7 +2806,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187873</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2840,10 +2842,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U29" t="n">
         <v>250.9057009881286</v>
@@ -2852,7 +2854,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -2950,25 +2952,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>30.9719158638759</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>52.54490042791015</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3016,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3083,7 +3085,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3187,13 +3189,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>27.24739666248491</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -3202,7 +3204,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3250,7 +3252,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>190.306324542792</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3278,7 +3280,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3314,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3326,7 +3328,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -3427,22 +3429,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>92.87435055577367</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3551,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3664,10 +3666,10 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>65.56423921895123</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -3676,7 +3678,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>173.6813593090546</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3788,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3898,16 +3900,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>25.78734729249726</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
@@ -3916,7 +3918,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3955,16 +3957,16 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>183.6118834172036</v>
       </c>
     </row>
     <row r="44">
@@ -4025,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4141,16 +4143,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>80.33989744908955</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>94.30373791808189</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4304,34 +4306,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1638.360256348808</v>
+        <v>1238.038871968309</v>
       </c>
       <c r="C2" t="n">
-        <v>1638.360256348808</v>
+        <v>869.0763550278969</v>
       </c>
       <c r="D2" t="n">
-        <v>1320.35562273557</v>
+        <v>869.0763550278969</v>
       </c>
       <c r="E2" t="n">
-        <v>934.5673701373257</v>
+        <v>483.2881024296526</v>
       </c>
       <c r="F2" t="n">
-        <v>523.5814653477182</v>
+        <v>476.3426016804491</v>
       </c>
       <c r="G2" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H2" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I2" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
@@ -4340,40 +4342,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T2" t="n">
-        <v>3119.628073993392</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U2" t="n">
-        <v>3119.628073993392</v>
+        <v>3072.075344883007</v>
       </c>
       <c r="V2" t="n">
-        <v>2788.565186649821</v>
+        <v>2741.012457539436</v>
       </c>
       <c r="W2" t="n">
-        <v>2788.565186649821</v>
+        <v>2388.243802269322</v>
       </c>
       <c r="X2" t="n">
-        <v>2415.099428388742</v>
+        <v>2014.778044008242</v>
       </c>
       <c r="Y2" t="n">
-        <v>2024.96009641293</v>
+        <v>1624.63871203243</v>
       </c>
     </row>
     <row r="3">
@@ -4383,34 +4385,34 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811075</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999805</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387292</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332737</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601587</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927768</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I3" t="n">
         <v>66.5121164321834</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031475</v>
       </c>
       <c r="L3" t="n">
         <v>765.151745215813</v>
@@ -4425,31 +4427,31 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125855</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619335</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297191</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431606</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199864</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471662</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266129</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y3" t="n">
         <v>1109.759191501176</v>
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>163.8377936138381</v>
+        <v>376.7853475753374</v>
       </c>
       <c r="C4" t="n">
-        <v>163.8377936138381</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="D4" t="n">
-        <v>163.8377936138381</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="E4" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F4" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G4" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962283</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K4" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L4" t="n">
-        <v>332.3555681596504</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M4" t="n">
-        <v>499.7880494588481</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N4" t="n">
-        <v>671.0968864886956</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O4" t="n">
-        <v>809.0152357068853</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P4" t="n">
-        <v>907.9662384596438</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q4" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R4" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S4" t="n">
-        <v>729.201121645011</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T4" t="n">
-        <v>729.201121645011</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U4" t="n">
-        <v>729.201121645011</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V4" t="n">
-        <v>474.5166334391241</v>
+        <v>666.202517612298</v>
       </c>
       <c r="W4" t="n">
-        <v>185.0994634021635</v>
+        <v>376.7853475753374</v>
       </c>
       <c r="X4" t="n">
-        <v>163.8377936138381</v>
+        <v>376.7853475753374</v>
       </c>
       <c r="Y4" t="n">
-        <v>163.8377936138381</v>
+        <v>376.7853475753374</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1859.132475219474</v>
+        <v>1899.13013587303</v>
       </c>
       <c r="C5" t="n">
-        <v>1490.169958279062</v>
+        <v>1530.167618932618</v>
       </c>
       <c r="D5" t="n">
-        <v>1131.904259672312</v>
+        <v>1171.901920325867</v>
       </c>
       <c r="E5" t="n">
-        <v>1131.904259672312</v>
+        <v>786.1136677276231</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389509</v>
+        <v>375.1277629380156</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H5" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I5" t="n">
         <v>66.5121164321834</v>
@@ -4577,13 +4579,13 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
         <v>3266.588755052368</v>
@@ -4592,25 +4594,25 @@
         <v>3325.60582160917</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520487</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="U5" t="n">
-        <v>3009.337405520487</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="V5" t="n">
-        <v>3009.337405520487</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="W5" t="n">
-        <v>3009.337405520487</v>
+        <v>2659.195734198231</v>
       </c>
       <c r="X5" t="n">
-        <v>2635.871647259407</v>
+        <v>2285.729975937151</v>
       </c>
       <c r="Y5" t="n">
-        <v>2245.732315283596</v>
+        <v>2285.729975937151</v>
       </c>
     </row>
     <row r="6">
@@ -4620,46 +4622,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I6" t="n">
         <v>66.5121164321834</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
         <v>2407.411984886741</v>
@@ -4689,7 +4691,7 @@
         <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4699,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>310.7277411117484</v>
+        <v>549.3683227675135</v>
       </c>
       <c r="C7" t="n">
-        <v>310.7277411117484</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="D7" t="n">
-        <v>310.7277411117484</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="E7" t="n">
-        <v>310.7277411117484</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="F7" t="n">
-        <v>163.837793613838</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="G7" t="n">
-        <v>163.837793613838</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H7" t="n">
-        <v>163.837793613838</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I7" t="n">
         <v>66.5121164321834</v>
@@ -4747,28 +4749,28 @@
         <v>920.8870058181849</v>
       </c>
       <c r="R7" t="n">
-        <v>920.8870058181849</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="S7" t="n">
-        <v>920.8870058181849</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="T7" t="n">
-        <v>920.8870058181849</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="U7" t="n">
-        <v>920.8870058181849</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="V7" t="n">
-        <v>920.8870058181849</v>
+        <v>777.3578736655309</v>
       </c>
       <c r="W7" t="n">
-        <v>713.1687850855183</v>
+        <v>777.3578736655309</v>
       </c>
       <c r="X7" t="n">
-        <v>713.1687850855183</v>
+        <v>549.3683227675135</v>
       </c>
       <c r="Y7" t="n">
-        <v>492.3762059419881</v>
+        <v>549.3683227675135</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2024.960096412931</v>
+        <v>1832.276849100055</v>
       </c>
       <c r="C8" t="n">
-        <v>1655.997579472519</v>
+        <v>1463.314332159643</v>
       </c>
       <c r="D8" t="n">
-        <v>1297.731880865769</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3119.628073993393</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U8" t="n">
-        <v>3119.628073993393</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="V8" t="n">
-        <v>2788.565186649822</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="W8" t="n">
-        <v>2788.565186649822</v>
+        <v>2609.016021139988</v>
       </c>
       <c r="X8" t="n">
-        <v>2415.099428388743</v>
+        <v>2609.016021139988</v>
       </c>
       <c r="Y8" t="n">
-        <v>2024.960096412931</v>
+        <v>2218.876689164177</v>
       </c>
     </row>
     <row r="9">
@@ -4875,28 +4877,28 @@
         <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
         <v>2407.411984886741</v>
@@ -4936,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>66.51211643218342</v>
+        <v>235.4482993600903</v>
       </c>
       <c r="C10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="D10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="E10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K10" t="n">
         <v>176.6457242372933</v>
@@ -4969,43 +4971,43 @@
         <v>332.3555681596505</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O10" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P10" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R10" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S10" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="T10" t="n">
-        <v>699.1203903877109</v>
+        <v>920.887005818185</v>
       </c>
       <c r="U10" t="n">
-        <v>410.0175235133545</v>
+        <v>920.887005818185</v>
       </c>
       <c r="V10" t="n">
-        <v>155.3330353074676</v>
+        <v>666.2025176122982</v>
       </c>
       <c r="W10" t="n">
-        <v>66.51211643218342</v>
+        <v>645.0863150883474</v>
       </c>
       <c r="X10" t="n">
-        <v>66.51211643218342</v>
+        <v>417.0967641903301</v>
       </c>
       <c r="Y10" t="n">
-        <v>66.51211643218342</v>
+        <v>417.0967641903301</v>
       </c>
     </row>
     <row r="11">
@@ -5018,7 +5020,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5027,19 +5029,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168615</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H11" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
         <v>852.8523611075807</v>
@@ -5066,22 +5068,22 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5121,22 +5123,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>454.6048385560546</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="M12" t="n">
-        <v>1072.713683962606</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951538</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5173,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>580.8993044876688</v>
+        <v>868.6673633290469</v>
       </c>
       <c r="C13" t="n">
-        <v>580.8993044876688</v>
+        <v>699.73118040114</v>
       </c>
       <c r="D13" t="n">
-        <v>580.8993044876688</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="E13" t="n">
-        <v>464.5051450557705</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F13" t="n">
-        <v>317.6151975578602</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5221,28 +5223,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1211.329899359456</v>
+        <v>1278.305379057304</v>
       </c>
       <c r="X13" t="n">
-        <v>983.3403484614387</v>
+        <v>1050.315828159287</v>
       </c>
       <c r="Y13" t="n">
-        <v>762.5477693179085</v>
+        <v>1050.315828159287</v>
       </c>
     </row>
     <row r="14">
@@ -5255,7 +5257,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5264,61 +5266,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5340,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,34 +5351,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="M15" t="n">
-        <v>1344.266747951538</v>
+        <v>692.9625378792909</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>1320.560501433898</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>1872.470231673185</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2296.093381168253</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2529.355041543136</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121643</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D16" t="n">
-        <v>194.8007783998286</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="E16" t="n">
-        <v>93.81666304797187</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F16" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="17">
@@ -5492,7 +5494,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5501,61 +5503,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5577,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,34 +5588,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K18" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="L18" t="n">
-        <v>506.2737913123336</v>
+        <v>119.2902967703784</v>
       </c>
       <c r="M18" t="n">
-        <v>1103.652278938886</v>
+        <v>716.6687843969303</v>
       </c>
       <c r="N18" t="n">
-        <v>1731.250242493492</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O18" t="n">
-        <v>2283.159972732779</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>560.7825789706076</v>
+        <v>641.8461362382112</v>
       </c>
       <c r="C19" t="n">
-        <v>391.8463960427007</v>
+        <v>472.9099533103043</v>
       </c>
       <c r="D19" t="n">
-        <v>241.729756630365</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="E19" t="n">
-        <v>93.81666304797187</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1816.378389352846</v>
       </c>
       <c r="V19" t="n">
-        <v>1480.630343879355</v>
+        <v>1561.693901146959</v>
       </c>
       <c r="W19" t="n">
-        <v>1191.213173842395</v>
+        <v>1272.276731109998</v>
       </c>
       <c r="X19" t="n">
-        <v>963.2236229443774</v>
+        <v>1044.287180211981</v>
       </c>
       <c r="Y19" t="n">
-        <v>742.4310438008473</v>
+        <v>823.4946010684509</v>
       </c>
     </row>
     <row r="20">
@@ -5729,7 +5731,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5738,61 +5740,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5814,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,31 +5825,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1072.713683962606</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N21" t="n">
-        <v>1700.311647517212</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O21" t="n">
-        <v>2252.221377756499</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2757.723669558405</v>
+        <v>2824.769373306004</v>
       </c>
       <c r="C22" t="n">
-        <v>2757.723669558405</v>
+        <v>2824.769373306004</v>
       </c>
       <c r="D22" t="n">
-        <v>2757.723669558405</v>
+        <v>2674.652733893668</v>
       </c>
       <c r="E22" t="n">
-        <v>2609.810575976011</v>
+        <v>2526.739640311275</v>
       </c>
       <c r="F22" t="n">
-        <v>2609.810575976011</v>
+        <v>2379.849692813365</v>
       </c>
       <c r="G22" t="n">
-        <v>2561.485266376193</v>
+        <v>2379.849692813365</v>
       </c>
       <c r="H22" t="n">
-        <v>2419.773435218391</v>
+        <v>2379.849692813365</v>
       </c>
       <c r="I22" t="n">
-        <v>2337.686731866304</v>
+        <v>2337.686731866305</v>
       </c>
       <c r="J22" t="n">
-        <v>2417.922750296628</v>
+        <v>2417.922750296629</v>
       </c>
       <c r="K22" t="n">
-        <v>2679.612012822167</v>
+        <v>2679.612012822168</v>
       </c>
       <c r="L22" t="n">
-        <v>3070.010606998107</v>
+        <v>3070.010606998108</v>
       </c>
       <c r="M22" t="n">
-        <v>3492.020309729142</v>
+        <v>3492.020309729143</v>
       </c>
       <c r="N22" t="n">
-        <v>3909.43018138915</v>
+        <v>3909.430181389151</v>
       </c>
       <c r="O22" t="n">
-        <v>4278.959462098135</v>
+        <v>4278.959462098136</v>
       </c>
       <c r="P22" t="n">
-        <v>4571.634917671694</v>
+        <v>4571.634917671695</v>
       </c>
       <c r="Q22" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="R22" t="n">
-        <v>4623.787448650995</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S22" t="n">
-        <v>4440.9326143059</v>
+        <v>4507.978318053499</v>
       </c>
       <c r="T22" t="n">
-        <v>4221.331149328841</v>
+        <v>4288.37685307644</v>
       </c>
       <c r="U22" t="n">
-        <v>3932.255922673039</v>
+        <v>3999.301626420638</v>
       </c>
       <c r="V22" t="n">
-        <v>3677.571434467152</v>
+        <v>3744.617138214751</v>
       </c>
       <c r="W22" t="n">
-        <v>3388.154264430192</v>
+        <v>3455.199968177791</v>
       </c>
       <c r="X22" t="n">
-        <v>3160.164713532175</v>
+        <v>3227.210417279774</v>
       </c>
       <c r="Y22" t="n">
-        <v>2939.372134388645</v>
+        <v>3006.417838136244</v>
       </c>
     </row>
     <row r="23">
@@ -5981,16 +5983,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -5999,7 +6001,7 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
         <v>3640.422291068009</v>
@@ -6051,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,31 +6062,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>251.5626541092265</v>
       </c>
       <c r="L24" t="n">
-        <v>577.3880777468471</v>
+        <v>746.8882603249853</v>
       </c>
       <c r="M24" t="n">
-        <v>1174.766565373399</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="N24" t="n">
-        <v>1802.364528928006</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O24" t="n">
-        <v>2354.274259167293</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>733.4550657171301</v>
+        <v>869.9745311434716</v>
       </c>
       <c r="C25" t="n">
-        <v>564.5188827892232</v>
+        <v>701.0383482155647</v>
       </c>
       <c r="D25" t="n">
-        <v>414.4022433768874</v>
+        <v>550.921708803229</v>
       </c>
       <c r="E25" t="n">
-        <v>266.4891497944943</v>
+        <v>403.0086152208358</v>
       </c>
       <c r="F25" t="n">
-        <v>266.4891497944943</v>
+        <v>256.1186677229255</v>
       </c>
       <c r="G25" t="n">
-        <v>99.29305050937427</v>
+        <v>256.1186677229255</v>
       </c>
       <c r="H25" t="n">
-        <v>99.29305050937427</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T25" t="n">
-        <v>2197.062545487567</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U25" t="n">
-        <v>1907.987318831765</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="V25" t="n">
-        <v>1653.302830625878</v>
+        <v>1789.822296052219</v>
       </c>
       <c r="W25" t="n">
-        <v>1363.885660588917</v>
+        <v>1500.405126015259</v>
       </c>
       <c r="X25" t="n">
-        <v>1135.8961096909</v>
+        <v>1272.415575117241</v>
       </c>
       <c r="Y25" t="n">
-        <v>915.1035305473698</v>
+        <v>1051.622995973711</v>
       </c>
     </row>
     <row r="26">
@@ -6206,31 +6208,31 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168604</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362679</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
         <v>2206.558663014778</v>
@@ -6239,34 +6241,34 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6288,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,31 +6299,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="M27" t="n">
-        <v>1072.713683962606</v>
+        <v>842.6091804069456</v>
       </c>
       <c r="N27" t="n">
-        <v>1540.888753373307</v>
+        <v>1470.207143961552</v>
       </c>
       <c r="O27" t="n">
-        <v>2092.798483612594</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
         <v>2516.421633107662</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>580.8993044876688</v>
+        <v>634.4644740681601</v>
       </c>
       <c r="C28" t="n">
-        <v>411.9631215597619</v>
+        <v>465.5282911402533</v>
       </c>
       <c r="D28" t="n">
-        <v>411.9631215597619</v>
+        <v>465.5282911402533</v>
       </c>
       <c r="E28" t="n">
-        <v>411.9631215597619</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.747069396417</v>
+        <v>1554.312238976908</v>
       </c>
       <c r="W28" t="n">
-        <v>1211.329899359456</v>
+        <v>1264.895068939947</v>
       </c>
       <c r="X28" t="n">
-        <v>983.3403484614387</v>
+        <v>1036.90551804193</v>
       </c>
       <c r="Y28" t="n">
-        <v>762.5477693179085</v>
+        <v>816.1129388983999</v>
       </c>
     </row>
     <row r="29">
@@ -6437,34 +6439,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E29" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168618</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332388</v>
@@ -6476,28 +6478,28 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
         <v>3467.980956852889</v>
@@ -6506,7 +6508,7 @@
         <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="30">
@@ -6525,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,10 +6536,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J30" t="n">
         <v>243.4633055756266</v>
@@ -6555,13 +6557,13 @@
         <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>580.8993044876688</v>
+        <v>984.5467179762953</v>
       </c>
       <c r="C31" t="n">
-        <v>580.8993044876688</v>
+        <v>815.6105350483884</v>
       </c>
       <c r="D31" t="n">
-        <v>580.8993044876688</v>
+        <v>665.4938956360527</v>
       </c>
       <c r="E31" t="n">
-        <v>549.6145409888043</v>
+        <v>517.5808020536596</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>370.6908545557492</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258106</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U31" t="n">
-        <v>1755.431557602304</v>
+        <v>1938.2863919474</v>
       </c>
       <c r="V31" t="n">
-        <v>1500.747069396417</v>
+        <v>1683.601903741513</v>
       </c>
       <c r="W31" t="n">
-        <v>1211.329899359456</v>
+        <v>1394.184733704552</v>
       </c>
       <c r="X31" t="n">
-        <v>983.3403484614387</v>
+        <v>1166.195182806535</v>
       </c>
       <c r="Y31" t="n">
-        <v>762.5477693179085</v>
+        <v>1166.195182806535</v>
       </c>
     </row>
     <row r="32">
@@ -6674,46 +6676,46 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6725,25 +6727,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6771,34 +6773,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="M33" t="n">
-        <v>716.6687843969308</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N33" t="n">
-        <v>1344.266747951538</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190825</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>733.4550657171301</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="C34" t="n">
-        <v>705.9324428257312</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="D34" t="n">
-        <v>555.8158034133954</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="E34" t="n">
-        <v>407.9027098310023</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F34" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797186</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>1363.885660588917</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>1135.8961096909</v>
+        <v>952.055584962574</v>
       </c>
       <c r="Y34" t="n">
-        <v>915.1035305473698</v>
+        <v>731.2630058190439</v>
       </c>
     </row>
     <row r="35">
@@ -6917,13 +6919,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6932,25 +6934,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6974,10 +6976,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -6990,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>943.3991132778466</v>
+        <v>3081.170977615666</v>
       </c>
       <c r="C36" t="n">
-        <v>768.9460839967196</v>
+        <v>2906.717948334539</v>
       </c>
       <c r="D36" t="n">
-        <v>620.0116743354683</v>
+        <v>2757.783538673288</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>2598.546083667832</v>
       </c>
       <c r="F36" t="n">
-        <v>314.2396613568978</v>
+        <v>2452.011525694717</v>
       </c>
       <c r="G36" t="n">
-        <v>178.4809954028057</v>
+        <v>2316.252859740625</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>2233.355914590558</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>2383.002557118213</v>
       </c>
       <c r="K36" t="n">
-        <v>243.4633055756266</v>
+        <v>2716.927329289434</v>
       </c>
       <c r="L36" t="n">
-        <v>352.5519571452614</v>
+        <v>3212.252935505192</v>
       </c>
       <c r="M36" t="n">
-        <v>949.9304447718133</v>
+        <v>3212.252935505192</v>
       </c>
       <c r="N36" t="n">
-        <v>1577.52840832642</v>
+        <v>3839.850899059799</v>
       </c>
       <c r="O36" t="n">
-        <v>2129.438138565707</v>
+        <v>4267.210002903525</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R36" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S36" t="n">
-        <v>2434.850501963388</v>
+        <v>4572.622366301206</v>
       </c>
       <c r="T36" t="n">
-        <v>2244.643795685161</v>
+        <v>4382.41566002298</v>
       </c>
       <c r="U36" t="n">
-        <v>2016.615714228345</v>
+        <v>4154.387578566165</v>
       </c>
       <c r="V36" t="n">
-        <v>1781.463605996603</v>
+        <v>3919.235470334422</v>
       </c>
       <c r="W36" t="n">
-        <v>1527.226249268401</v>
+        <v>3664.998113606221</v>
       </c>
       <c r="X36" t="n">
-        <v>1319.374749062868</v>
+        <v>3457.146613400688</v>
       </c>
       <c r="Y36" t="n">
-        <v>1111.614450297915</v>
+        <v>3249.386314635734</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>2977.325134535463</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121643</v>
+        <v>2808.388951607556</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121643</v>
+        <v>2714.576476298694</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121643</v>
+        <v>2566.663382716301</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121643</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="G37" t="n">
-        <v>177.7213185270443</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M37" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>4440.9326143059</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>4440.9326143059</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>4151.857387650098</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>3897.172899444211</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>3607.75572940725</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>3379.766178509233</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>3158.973599365703</v>
       </c>
     </row>
     <row r="38">
@@ -7148,46 +7150,46 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7205,19 +7207,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>943.3991132778466</v>
+        <v>3081.170977615666</v>
       </c>
       <c r="C39" t="n">
-        <v>768.9460839967196</v>
+        <v>2906.717948334539</v>
       </c>
       <c r="D39" t="n">
-        <v>620.0116743354683</v>
+        <v>2757.783538673288</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>2598.546083667832</v>
       </c>
       <c r="F39" t="n">
-        <v>314.2396613568978</v>
+        <v>2452.011525694717</v>
       </c>
       <c r="G39" t="n">
-        <v>178.4809954028057</v>
+        <v>2316.252859740625</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>2233.355914590558</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>2233.355914590558</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>2567.280686761779</v>
       </c>
       <c r="L39" t="n">
-        <v>119.290296770379</v>
+        <v>2567.280686761779</v>
       </c>
       <c r="M39" t="n">
-        <v>716.6687843969308</v>
+        <v>3051.062654156519</v>
       </c>
       <c r="N39" t="n">
-        <v>1344.266747951538</v>
+        <v>3678.660617711126</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190825</v>
+        <v>4230.570347950413</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>4654.193497445481</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>4654.193497445481</v>
       </c>
       <c r="R39" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S39" t="n">
-        <v>2434.850501963388</v>
+        <v>4572.622366301206</v>
       </c>
       <c r="T39" t="n">
-        <v>2244.643795685161</v>
+        <v>4382.41566002298</v>
       </c>
       <c r="U39" t="n">
-        <v>2016.615714228345</v>
+        <v>4154.387578566165</v>
       </c>
       <c r="V39" t="n">
-        <v>1781.463605996603</v>
+        <v>3919.235470334422</v>
       </c>
       <c r="W39" t="n">
-        <v>1527.226249268401</v>
+        <v>3664.998113606221</v>
       </c>
       <c r="X39" t="n">
-        <v>1319.374749062868</v>
+        <v>3457.146613400688</v>
       </c>
       <c r="Y39" t="n">
-        <v>1111.614450297915</v>
+        <v>3249.386314635734</v>
       </c>
     </row>
     <row r="40">
@@ -7306,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>763.7541388327643</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="C40" t="n">
-        <v>763.7541388327643</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D40" t="n">
-        <v>697.5276345711974</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E40" t="n">
-        <v>549.6145409888043</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7330,52 +7332,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>2227.361618603201</v>
+        <v>2021.626829013775</v>
       </c>
       <c r="U40" t="n">
-        <v>1938.286391947399</v>
+        <v>1732.551602357973</v>
       </c>
       <c r="V40" t="n">
-        <v>1683.601903741512</v>
+        <v>1477.867114152086</v>
       </c>
       <c r="W40" t="n">
-        <v>1394.184733704551</v>
+        <v>1188.449944115125</v>
       </c>
       <c r="X40" t="n">
-        <v>1166.195182806534</v>
+        <v>960.4603932171079</v>
       </c>
       <c r="Y40" t="n">
-        <v>945.402603663004</v>
+        <v>739.6678140735778</v>
       </c>
     </row>
     <row r="41">
@@ -7397,31 +7399,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
         <v>3640.422291068009</v>
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>943.3991132778466</v>
+        <v>3081.170977615666</v>
       </c>
       <c r="C42" t="n">
-        <v>768.9460839967196</v>
+        <v>2906.717948334539</v>
       </c>
       <c r="D42" t="n">
-        <v>620.0116743354683</v>
+        <v>2757.783538673288</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300128</v>
+        <v>2598.546083667832</v>
       </c>
       <c r="F42" t="n">
-        <v>314.2396613568978</v>
+        <v>2452.011525694717</v>
       </c>
       <c r="G42" t="n">
-        <v>178.4809954028057</v>
+        <v>2316.252859740625</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>2233.355914590558</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>2383.002557118213</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>2716.927329289434</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>3212.252935505192</v>
       </c>
       <c r="M42" t="n">
-        <v>1670.092171589158</v>
+        <v>3369.710724020923</v>
       </c>
       <c r="N42" t="n">
-        <v>2297.690135143765</v>
+        <v>3997.30868757553</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.061288060775</v>
+        <v>3997.30868757553</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>4420.931837070598</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>4654.193497445481</v>
       </c>
       <c r="R42" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S42" t="n">
-        <v>2434.850501963388</v>
+        <v>4572.622366301206</v>
       </c>
       <c r="T42" t="n">
-        <v>2244.643795685161</v>
+        <v>4382.41566002298</v>
       </c>
       <c r="U42" t="n">
-        <v>2016.615714228345</v>
+        <v>4154.387578566165</v>
       </c>
       <c r="V42" t="n">
-        <v>1781.463605996603</v>
+        <v>3919.235470334422</v>
       </c>
       <c r="W42" t="n">
-        <v>1527.226249268401</v>
+        <v>3664.998113606221</v>
       </c>
       <c r="X42" t="n">
-        <v>1319.374749062868</v>
+        <v>3457.146613400688</v>
       </c>
       <c r="Y42" t="n">
-        <v>1111.614450297915</v>
+        <v>3249.386314635734</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>808.8888553856862</v>
+        <v>3047.734188001555</v>
       </c>
       <c r="C43" t="n">
-        <v>808.8888553856862</v>
+        <v>2878.798005073648</v>
       </c>
       <c r="D43" t="n">
-        <v>658.7722159733504</v>
+        <v>2728.681365661313</v>
       </c>
       <c r="E43" t="n">
-        <v>510.8591223909573</v>
+        <v>2728.681365661313</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429803</v>
+        <v>2728.681365661313</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>2561.485266376193</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M43" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>4440.9326143059</v>
       </c>
       <c r="T43" t="n">
-        <v>2044.506784258106</v>
+        <v>4221.331149328841</v>
       </c>
       <c r="U43" t="n">
-        <v>1755.431557602304</v>
+        <v>3932.255922673039</v>
       </c>
       <c r="V43" t="n">
-        <v>1500.747069396417</v>
+        <v>3932.255922673039</v>
       </c>
       <c r="W43" t="n">
-        <v>1211.329899359456</v>
+        <v>3642.838752636078</v>
       </c>
       <c r="X43" t="n">
-        <v>1211.329899359456</v>
+        <v>3414.849201738061</v>
       </c>
       <c r="Y43" t="n">
-        <v>990.5373202159259</v>
+        <v>3229.382652831795</v>
       </c>
     </row>
     <row r="44">
@@ -7637,28 +7639,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7682,13 +7684,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7722,31 +7724,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="M45" t="n">
-        <v>840.8417932021785</v>
+        <v>842.6091804069456</v>
       </c>
       <c r="N45" t="n">
-        <v>1468.439756756785</v>
+        <v>1470.207143961552</v>
       </c>
       <c r="O45" t="n">
-        <v>2020.349486996072</v>
+        <v>2022.116874200839</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7789,13 +7791,13 @@
         <v>483.8760050556308</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>335.9629114732377</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>189.0729639753273</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -23416,25 +23418,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>31.20374480898987</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23476,13 +23478,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>132.6809716109911</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23653,25 +23655,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>99.76050189075423</v>
       </c>
       <c r="E16" t="n">
-        <v>46.45968844823102</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23896,10 +23898,10 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -23908,7 +23910,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23944,10 +23946,10 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>126.712610143158</v>
       </c>
       <c r="V19" t="n">
-        <v>46.45968844823091</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24130,22 +24132,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>117.6820817884482</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>39.52450498097689</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24373,16 +24375,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>60.88156453658534</v>
       </c>
       <c r="I25" t="n">
-        <v>75.84421273177716</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,16 +24411,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24607,19 +24609,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>136.2749052347519</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24658,7 +24660,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>119.4047645948075</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24838,25 +24840,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>115.4620467826933</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>112.9792378643587</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24904,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25075,13 +25077,13 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>139.9994244361429</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -25090,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25126,7 +25128,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25138,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>35.40333084624515</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25315,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>55.74112246243868</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25363,7 +25365,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25552,10 +25554,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>83.05123379926113</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -25564,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>43.72409101823362</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25786,16 +25788,16 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>119.633700730434</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25831,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25843,16 +25845,16 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>34.97276993489115</v>
       </c>
     </row>
     <row r="44">
@@ -26029,16 +26031,16 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>66.09406519747962</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>71.22040037418695</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>721501.8738540632</v>
+        <v>721501.8738540633</v>
       </c>
     </row>
     <row r="16">
@@ -26314,46 +26316,46 @@
         <v>718411.5486312478</v>
       </c>
       <c r="C2" t="n">
-        <v>718411.5486312478</v>
+        <v>718411.5486312481</v>
       </c>
       <c r="D2" t="n">
-        <v>718411.5486312477</v>
+        <v>718411.5486312479</v>
       </c>
       <c r="E2" t="n">
+        <v>706253.2747287556</v>
+      </c>
+      <c r="F2" t="n">
+        <v>706253.2747287556</v>
+      </c>
+      <c r="G2" t="n">
         <v>706253.2747287554</v>
       </c>
-      <c r="F2" t="n">
-        <v>706253.2747287554</v>
-      </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
+        <v>706253.2747287556</v>
+      </c>
+      <c r="I2" t="n">
+        <v>706253.2747287552</v>
+      </c>
+      <c r="J2" t="n">
+        <v>706253.2747287556</v>
+      </c>
+      <c r="K2" t="n">
+        <v>706253.2747287556</v>
+      </c>
+      <c r="L2" t="n">
         <v>706253.2747287555</v>
       </c>
-      <c r="H2" t="n">
+      <c r="M2" t="n">
         <v>706253.2747287555</v>
       </c>
-      <c r="I2" t="n">
-        <v>706253.2747287554</v>
-      </c>
-      <c r="J2" t="n">
-        <v>706253.2747287555</v>
-      </c>
-      <c r="K2" t="n">
-        <v>706253.2747287554</v>
-      </c>
-      <c r="L2" t="n">
-        <v>706253.2747287554</v>
-      </c>
-      <c r="M2" t="n">
-        <v>706253.2747287554</v>
-      </c>
       <c r="N2" t="n">
-        <v>706253.2747287552</v>
+        <v>706253.2747287556</v>
       </c>
       <c r="O2" t="n">
         <v>706253.2747287557</v>
       </c>
       <c r="P2" t="n">
-        <v>706253.2747287555</v>
+        <v>706253.2747287556</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727592</v>
+        <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,10 +26374,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>325412.4618073551</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551187</v>
+        <v>85055.02793551178</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,28 +26417,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93596.7441040526</v>
+        <v>93596.74410405254</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.74410405256</v>
+        <v>93596.74410405254</v>
       </c>
       <c r="D4" t="n">
         <v>93596.74410405252</v>
       </c>
       <c r="E4" t="n">
-        <v>16046.58397189202</v>
+        <v>16046.58397189193</v>
       </c>
       <c r="F4" t="n">
-        <v>16046.58397189203</v>
+        <v>16046.58397189193</v>
       </c>
       <c r="G4" t="n">
-        <v>16046.58397189198</v>
+        <v>16046.58397189193</v>
       </c>
       <c r="H4" t="n">
+        <v>16046.58397189195</v>
+      </c>
+      <c r="I4" t="n">
         <v>16046.58397189197</v>
-      </c>
-      <c r="I4" t="n">
-        <v>16046.58397189198</v>
       </c>
       <c r="J4" t="n">
         <v>16046.58397189197</v>
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-811863.8817617905</v>
+        <v>-811863.8817617906</v>
       </c>
       <c r="C6" t="n">
-        <v>516880.863965802</v>
+        <v>516880.8639658022</v>
       </c>
       <c r="D6" t="n">
-        <v>516880.8639658019</v>
+        <v>516880.8639658021</v>
       </c>
       <c r="E6" t="n">
-        <v>263671.699125601</v>
+        <v>263671.6991256014</v>
       </c>
       <c r="F6" t="n">
         <v>589084.1609329563</v>
       </c>
       <c r="G6" t="n">
+        <v>589084.1609329563</v>
+      </c>
+      <c r="H6" t="n">
+        <v>589084.1609329565</v>
+      </c>
+      <c r="I6" t="n">
+        <v>589084.160932956</v>
+      </c>
+      <c r="J6" t="n">
+        <v>371552.958535679</v>
+      </c>
+      <c r="K6" t="n">
+        <v>589084.1609329565</v>
+      </c>
+      <c r="L6" t="n">
         <v>589084.1609329564</v>
       </c>
-      <c r="H6" t="n">
-        <v>589084.1609329564</v>
-      </c>
-      <c r="I6" t="n">
-        <v>589084.1609329563</v>
-      </c>
-      <c r="J6" t="n">
-        <v>371552.9585356789</v>
-      </c>
-      <c r="K6" t="n">
-        <v>589084.1609329563</v>
-      </c>
-      <c r="L6" t="n">
-        <v>589084.1609329563</v>
-      </c>
       <c r="M6" t="n">
-        <v>504029.1329974444</v>
+        <v>504029.1329974445</v>
       </c>
       <c r="N6" t="n">
-        <v>589084.1609329561</v>
+        <v>589084.1609329565</v>
       </c>
       <c r="O6" t="n">
         <v>589084.1609329566</v>
       </c>
       <c r="P6" t="n">
-        <v>589084.1609329564</v>
+        <v>589084.1609329566</v>
       </c>
     </row>
   </sheetData>
@@ -26787,34 +26789,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
         <v>831.4014554022925</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
@@ -26969,7 +26971,7 @@
         <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,25 +27381,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>39.85845434357719</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>5.189545257670375</v>
       </c>
       <c r="H2" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,16 +27432,16 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27537,13 +27539,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>6.51028491347455</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27555,7 +27557,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,10 +27584,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
         <v>219.5489492761692</v>
@@ -27600,7 +27602,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>204.660602298595</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27622,19 +27624,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>99.24424374768421</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,25 +27666,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>144.4081242791055</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27771,10 +27773,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27783,16 +27785,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
@@ -27831,16 +27833,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>198.9759551627478</v>
       </c>
       <c r="W7" t="n">
-        <v>80.88195981125105</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,16 +27852,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>213.1539192908504</v>
       </c>
       <c r="E8" t="n">
-        <v>317.0052688384236</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27868,7 +27870,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,22 +27903,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28008,10 +28010,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28062,19 +28064,19 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>198.5902886500597</v>
+        <v>265.6179578378798</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28102,10 +28104,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>-5.820141602602879e-14</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>-6.496390726949487e-14</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28138,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>-6.496390726949487e-14</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>-6.496390726949487e-14</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>-6.496390726949487e-14</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>-6.496390726949487e-14</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>-6.496390726949487e-14</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>-6.496390726949487e-14</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>-6.496390726949487e-14</v>
       </c>
     </row>
     <row r="12">
@@ -28339,10 +28341,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>-5.820141602602879e-14</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>-6.496390726949487e-14</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28375,25 +28377,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>-6.496390726949487e-14</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>-6.496390726949487e-14</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>-6.496390726949487e-14</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>-6.496390726949487e-14</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>-6.496390726949487e-14</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>-6.496390726949487e-14</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>-6.496390726949487e-14</v>
       </c>
     </row>
     <row r="15">
@@ -28561,25 +28563,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>-6.496390726949487e-14</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>-6.496390726949487e-14</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>-6.496390726949487e-14</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>-6.496390726949487e-14</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>-6.496390726949487e-14</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>-6.496390726949487e-14</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>-6.496390726949487e-14</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28612,25 +28614,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>-6.496390726949487e-14</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>-6.496390726949487e-14</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>-6.496390726949487e-14</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>-6.496390726949487e-14</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>-6.496390726949487e-14</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>-6.496390726949487e-14</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>-6.496390726949487e-14</v>
       </c>
     </row>
     <row r="18">
@@ -31039,43 +31041,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I2" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
@@ -31124,40 +31126,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K3" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31197,13 +31199,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
@@ -31212,16 +31214,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P4" t="n">
         <v>237.6785118802169</v>
@@ -31230,16 +31232,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31841,7 +31843,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>351.1157147121651</v>
       </c>
       <c r="L12" t="n">
         <v>638.8832749473072</v>
@@ -31850,7 +31852,7 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>405.6377363145776</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
         <v>700.0808204437243</v>
@@ -31859,7 +31861,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
@@ -31987,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>416.4300581532626</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>169.6252075171348</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>404.0195168876591</v>
+        <v>164.2853229338202</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>650.2626573149951</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
-        <v>202.2352659288688</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460016</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>144.2373595085334</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
-        <v>334.7693860946154</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>604.245822599193</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>535.8585467435946</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R27" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
@@ -33263,37 +33265,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>400.5469039565762</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>360.9226811202611</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>620.1193660647499</v>
+        <v>671.9287955253226</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,43 +33648,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817562</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,34 +33727,34 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>248.7449369209195</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>574.2721069128547</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33761,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>164.2853229338207</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>630.8026878560993</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.820449923651</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>301.1823051500289</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>400.5469039565762</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34363,7 +34365,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34442,7 +34444,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
@@ -34463,13 +34465,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>399.4395445221152</v>
+        <v>434.6640573992324</v>
       </c>
       <c r="Q45" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K3" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P3" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>11.94217529034286</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K4" t="n">
-        <v>99.30389319966699</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L4" t="n">
-        <v>157.2826706286436</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M4" t="n">
-        <v>169.1237184840381</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N4" t="n">
-        <v>173.0392293230782</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O4" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P4" t="n">
-        <v>99.95050783106927</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q4" t="n">
-        <v>13.05128016014217</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35489,7 +35491,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>213.2742757378061</v>
       </c>
       <c r="L12" t="n">
         <v>500.328895167433</v>
@@ -35498,7 +35500,7 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>274.2960242312443</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
         <v>557.4845759992799</v>
@@ -35507,7 +35509,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35641,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,34 +35722,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>274.2960242312443</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>23.94570355317081</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,31 +35962,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>265.4651371077849</v>
+        <v>25.73094315394598</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36203,22 +36205,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>508.1286233929767</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
-        <v>68.26085851453861</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243148</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,31 +36433,31 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>6.395920534174421</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
-        <v>200.7949786802852</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,34 +36670,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>472.9041105158597</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>393.2623022991502</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36914,25 +36916,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>257.9506595121318</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>220.9409070342396</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,34 +37144,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>477.9853321427316</v>
+        <v>529.7947616033042</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367756</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,28 +37381,28 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>110.1905571410453</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>431.6758624684103</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37461,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317809</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,34 +37618,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>25.73094315394657</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>488.668653934081</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37862,25 +37864,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>159.0482712280106</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>257.9506595121318</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,7 +38013,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38090,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38111,13 +38113,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>265.4651371077849</v>
+        <v>300.6896499849021</v>
       </c>
       <c r="Q45" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_25_35.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_25_35.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3134687.407801623</v>
+        <v>3130674.79778763</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283183</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -670,16 +670,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>405.7321803957831</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,10 +709,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>193.2867318986417</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
@@ -721,7 +721,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -816,22 +816,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>72.0880274467727</v>
       </c>
       <c r="C4" t="n">
-        <v>160.7365361851533</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -876,10 +876,10 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -910,10 +910,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>10.92172565345345</v>
+        <v>51.9336039734935</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
         <v>203.9179701396201</v>
@@ -958,7 +958,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>204.8328444383075</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -995,7 +995,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,10 +1022,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734107401</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T6" t="n">
         <v>190.7165703189231</v>
@@ -1043,7 +1043,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773041</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1053,25 +1053,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>72.08802744677315</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1101,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1113,13 +1113,13 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>53.16168816108021</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1138,7 +1138,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>141.5291223298325</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1147,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>286.421937954811</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1186,10 +1186,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1232,7 +1232,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,10 +1259,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1296,16 +1296,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>58.28185552386401</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1350,13 +1350,13 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>20.90504049871122</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1381,13 +1381,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444144</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,22 +1420,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695439</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881287</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1536,7 +1536,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -1548,7 +1548,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>150.3341561773498</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>153.8420267255999</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1618,13 +1618,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187867</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,22 +1657,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695535</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1767,22 +1767,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>48.85497112745813</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>139.3687739767484</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856552</v>
@@ -1821,7 +1821,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1846,7 +1846,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1855,13 +1855,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,22 +1894,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695534</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881287</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V17" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -2010,7 +2010,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -2019,10 +2019,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,16 +2049,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>203.575104045076</v>
       </c>
       <c r="U19" t="n">
-        <v>159.4718642460861</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2070,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2092,13 +2092,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,22 +2131,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881287</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.2409687174132</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2241,25 +2241,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>164.5981994227928</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>41.74133133758863</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2295,7 +2295,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2368,13 +2368,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2481,22 +2481,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>79.41314830963852</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2532,7 +2532,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2557,7 +2557,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710079</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2721,19 +2721,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2772,7 +2772,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>132.7328787290205</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2803,10 +2803,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187873</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2842,10 +2842,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
         <v>250.9057009881286</v>
@@ -2955,22 +2955,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>52.54490042791015</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3189,16 +3189,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>42.5313457611372</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -3207,7 +3207,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3252,7 +3252,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>190.306324542792</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3277,7 +3277,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G35" t="n">
         <v>409.8033385187866</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3328,7 +3328,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -3426,25 +3426,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D37" t="n">
-        <v>92.87435055577367</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3663,22 +3663,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>173.6813593090546</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3903,7 +3903,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3915,10 +3915,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3957,7 +3957,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>183.6118834172036</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4140,19 +4140,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>94.30373791808189</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4191,7 +4191,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1238.038871968309</v>
+        <v>1285.277735635578</v>
       </c>
       <c r="C2" t="n">
-        <v>869.0763550278969</v>
+        <v>916.3152186951659</v>
       </c>
       <c r="D2" t="n">
-        <v>869.0763550278969</v>
+        <v>916.3152186951659</v>
       </c>
       <c r="E2" t="n">
-        <v>483.2881024296526</v>
+        <v>530.5269660969217</v>
       </c>
       <c r="F2" t="n">
-        <v>476.3426016804491</v>
+        <v>119.5410613073142</v>
       </c>
       <c r="G2" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H2" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R2" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3325.605821609171</v>
+        <v>3020.076030006325</v>
       </c>
       <c r="U2" t="n">
-        <v>3072.075344883007</v>
+        <v>2766.545553280162</v>
       </c>
       <c r="V2" t="n">
-        <v>2741.012457539436</v>
+        <v>2435.482665936591</v>
       </c>
       <c r="W2" t="n">
-        <v>2388.243802269322</v>
+        <v>2435.482665936591</v>
       </c>
       <c r="X2" t="n">
-        <v>2014.778044008242</v>
+        <v>2062.016907675511</v>
       </c>
       <c r="Y2" t="n">
-        <v>1624.63871203243</v>
+        <v>1671.877575699699</v>
       </c>
     </row>
     <row r="3">
@@ -4400,19 +4400,19 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I3" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031475</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
         <v>765.151745215813</v>
@@ -4464,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>376.7853475753374</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C4" t="n">
-        <v>214.4252100145765</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D4" t="n">
-        <v>214.4252100145765</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E4" t="n">
-        <v>66.51211643218342</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F4" t="n">
-        <v>66.51211643218342</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K4" t="n">
         <v>176.6457242372933</v>
@@ -4497,43 +4497,43 @@
         <v>332.3555681596505</v>
       </c>
       <c r="M4" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N4" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O4" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P4" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q4" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R4" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S4" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="T4" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="U4" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="V4" t="n">
-        <v>666.202517612298</v>
+        <v>920.887005818185</v>
       </c>
       <c r="W4" t="n">
-        <v>376.7853475753374</v>
+        <v>920.887005818185</v>
       </c>
       <c r="X4" t="n">
-        <v>376.7853475753374</v>
+        <v>920.887005818185</v>
       </c>
       <c r="Y4" t="n">
-        <v>376.7853475753374</v>
+        <v>920.887005818185</v>
       </c>
     </row>
     <row r="5">
@@ -4543,40 +4543,40 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1899.13013587303</v>
+        <v>1642.972675199009</v>
       </c>
       <c r="C5" t="n">
-        <v>1530.167618932618</v>
+        <v>1274.010158258597</v>
       </c>
       <c r="D5" t="n">
-        <v>1171.901920325867</v>
+        <v>915.7444596518469</v>
       </c>
       <c r="E5" t="n">
-        <v>786.1136677276231</v>
+        <v>529.9562070536026</v>
       </c>
       <c r="F5" t="n">
-        <v>375.1277629380156</v>
+        <v>118.9703022639951</v>
       </c>
       <c r="G5" t="n">
-        <v>364.0957168234162</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H5" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I5" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912088</v>
+        <v>255.391247391209</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810556</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
         <v>2120.555556060171</v>
@@ -4585,34 +4585,34 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3119.628073993392</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U5" t="n">
-        <v>2866.097597267229</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V5" t="n">
-        <v>2866.097597267229</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="W5" t="n">
-        <v>2659.195734198231</v>
+        <v>2403.038273524211</v>
       </c>
       <c r="X5" t="n">
-        <v>2285.729975937151</v>
+        <v>2029.572515263131</v>
       </c>
       <c r="Y5" t="n">
-        <v>2285.729975937151</v>
+        <v>2029.572515263131</v>
       </c>
     </row>
     <row r="6">
@@ -4643,31 +4643,31 @@
         <v>85.51940803064545</v>
       </c>
       <c r="I6" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R6" t="n">
         <v>2564.909189125856</v>
@@ -4679,7 +4679,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4688,7 +4688,7 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
         <v>1109.759191501177</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>549.3683227675135</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C7" t="n">
-        <v>380.4321398396066</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D7" t="n">
-        <v>380.4321398396066</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E7" t="n">
-        <v>380.4321398396066</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F7" t="n">
-        <v>380.4321398396066</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G7" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H7" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I7" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962286</v>
+        <v>78.33486996962291</v>
       </c>
       <c r="K7" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L7" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596507</v>
       </c>
       <c r="M7" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588485</v>
       </c>
       <c r="N7" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886961</v>
       </c>
       <c r="O7" t="n">
-        <v>809.0152357068855</v>
+        <v>809.015235706886</v>
       </c>
       <c r="P7" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596446</v>
       </c>
       <c r="Q7" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="R7" t="n">
-        <v>831.0565485757129</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="S7" t="n">
-        <v>831.0565485757129</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="T7" t="n">
-        <v>831.0565485757129</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="U7" t="n">
-        <v>831.0565485757129</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="V7" t="n">
-        <v>777.3578736655309</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="W7" t="n">
-        <v>777.3578736655309</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="X7" t="n">
-        <v>549.3683227675135</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="Y7" t="n">
-        <v>549.3683227675135</v>
+        <v>920.8870058181855</v>
       </c>
     </row>
     <row r="8">
@@ -4780,40 +4780,40 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1832.276849100055</v>
+        <v>1879.829578210441</v>
       </c>
       <c r="C8" t="n">
-        <v>1463.314332159643</v>
+        <v>1510.867061270029</v>
       </c>
       <c r="D8" t="n">
-        <v>1320.35562273557</v>
+        <v>1152.601362663279</v>
       </c>
       <c r="E8" t="n">
-        <v>934.5673701373257</v>
+        <v>766.8131100650344</v>
       </c>
       <c r="F8" t="n">
-        <v>523.5814653477182</v>
+        <v>355.8272052754268</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I8" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060172</v>
@@ -4834,22 +4834,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U8" t="n">
-        <v>2961.784676410103</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="V8" t="n">
-        <v>2961.784676410103</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="W8" t="n">
-        <v>2609.016021139988</v>
+        <v>2656.568750250374</v>
       </c>
       <c r="X8" t="n">
-        <v>2609.016021139988</v>
+        <v>2656.568750250374</v>
       </c>
       <c r="Y8" t="n">
-        <v>2218.876689164177</v>
+        <v>2266.429418274563</v>
       </c>
     </row>
     <row r="9">
@@ -4859,46 +4859,46 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K9" t="n">
         <v>398.4535849031481</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
         <v>2407.411984886741</v>
@@ -4916,7 +4916,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4925,10 +4925,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="10">
@@ -4938,19 +4938,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>235.4482993600903</v>
+        <v>739.2385409879457</v>
       </c>
       <c r="C10" t="n">
-        <v>66.51211643218343</v>
+        <v>570.3023580600388</v>
       </c>
       <c r="D10" t="n">
-        <v>66.51211643218343</v>
+        <v>420.1857186477031</v>
       </c>
       <c r="E10" t="n">
-        <v>66.51211643218343</v>
+        <v>272.27262506531</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218343</v>
+        <v>125.3826775673996</v>
       </c>
       <c r="G10" t="n">
         <v>66.51211643218343</v>
@@ -4962,52 +4962,52 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962291</v>
       </c>
       <c r="K10" t="n">
         <v>176.6457242372933</v>
       </c>
       <c r="L10" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596507</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588485</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886961</v>
       </c>
       <c r="O10" t="n">
-        <v>809.0152357068856</v>
+        <v>809.015235706886</v>
       </c>
       <c r="P10" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596446</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="R10" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="S10" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="T10" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="U10" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="V10" t="n">
-        <v>666.2025176122982</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="W10" t="n">
-        <v>645.0863150883474</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="X10" t="n">
-        <v>417.0967641903301</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="Y10" t="n">
-        <v>417.0967641903301</v>
+        <v>920.8870058181855</v>
       </c>
     </row>
     <row r="11">
@@ -5023,31 +5023,31 @@
         <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168615</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362692</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332389</v>
       </c>
       <c r="M11" t="n">
         <v>2206.55866301478</v>
@@ -5056,16 +5056,16 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
         <v>4606.285157492579</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,28 +5114,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K12" t="n">
-        <v>454.6048385560546</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L12" t="n">
-        <v>949.9304447718133</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>868.6673633290469</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C13" t="n">
-        <v>699.73118040114</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D13" t="n">
-        <v>549.6145409888043</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E13" t="n">
-        <v>549.6145409888043</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>2045.209862480144</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1790.525374274257</v>
       </c>
       <c r="W13" t="n">
-        <v>1278.305379057304</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="X13" t="n">
-        <v>1050.315828159287</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y13" t="n">
-        <v>1050.315828159287</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="14">
@@ -5266,37 +5266,37 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852256</v>
@@ -5314,13 +5314,13 @@
         <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
         <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5357,28 +5357,28 @@
         <v>95.58405025273906</v>
       </c>
       <c r="J15" t="n">
-        <v>95.58405025273906</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>95.58405025273906</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L15" t="n">
-        <v>95.58405025273906</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>692.9625378792909</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1320.560501433898</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
-        <v>1872.470231673185</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2296.093381168253</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2529.355041543136</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400717</v>
+        <v>802.9288273958739</v>
       </c>
       <c r="C16" t="n">
-        <v>513.8536007400717</v>
+        <v>633.992644467967</v>
       </c>
       <c r="D16" t="n">
-        <v>464.5051450557705</v>
+        <v>483.8760050556313</v>
       </c>
       <c r="E16" t="n">
-        <v>464.5051450557705</v>
+        <v>483.8760050556313</v>
       </c>
       <c r="F16" t="n">
-        <v>317.6151975578601</v>
+        <v>483.8760050556313</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>316.6799057705112</v>
       </c>
       <c r="H16" t="n">
         <v>175.9033664000583</v>
@@ -5469,19 +5469,19 @@
         <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>1722.776592304622</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611859</v>
+        <v>1433.359422267661</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138415</v>
+        <v>1205.369871369644</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703114</v>
+        <v>984.5772922261136</v>
       </c>
     </row>
     <row r="17">
@@ -5494,7 +5494,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5503,19 +5503,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075809</v>
@@ -5524,7 +5524,7 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
         <v>2950.898526355938</v>
@@ -5533,7 +5533,7 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852256</v>
@@ -5548,7 +5548,7 @@
         <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
         <v>3820.749612123003</v>
@@ -5591,28 +5591,28 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797189</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
-        <v>119.2902967703784</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969303</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951537</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>641.8461362382112</v>
+        <v>931.4710609784064</v>
       </c>
       <c r="C19" t="n">
-        <v>472.9099533103043</v>
+        <v>762.5348780504995</v>
       </c>
       <c r="D19" t="n">
-        <v>322.7933138979686</v>
+        <v>612.4182386381638</v>
       </c>
       <c r="E19" t="n">
-        <v>322.7933138979686</v>
+        <v>464.5051450557706</v>
       </c>
       <c r="F19" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578603</v>
       </c>
       <c r="G19" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578603</v>
       </c>
       <c r="H19" t="n">
         <v>175.9033664000583</v>
@@ -5673,52 +5673,52 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>2174.285961605313</v>
       </c>
       <c r="U19" t="n">
-        <v>1816.378389352846</v>
+        <v>1885.210734949511</v>
       </c>
       <c r="V19" t="n">
-        <v>1561.693901146959</v>
+        <v>1630.526246743624</v>
       </c>
       <c r="W19" t="n">
-        <v>1272.276731109998</v>
+        <v>1341.109076706663</v>
       </c>
       <c r="X19" t="n">
-        <v>1044.287180211981</v>
+        <v>1113.119525808646</v>
       </c>
       <c r="Y19" t="n">
-        <v>823.4946010684509</v>
+        <v>1113.119525808646</v>
       </c>
     </row>
     <row r="20">
@@ -5731,7 +5731,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5740,28 +5740,28 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
         <v>2950.898526355938</v>
@@ -5779,13 +5779,13 @@
         <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
         <v>3820.749612123003</v>
@@ -5828,7 +5828,7 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J21" t="n">
         <v>245.2306927803938</v>
@@ -5837,22 +5837,22 @@
         <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="M21" t="n">
-        <v>1577.52840832642</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N21" t="n">
-        <v>1577.52840832642</v>
+        <v>1804.131916132773</v>
       </c>
       <c r="O21" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2824.769373306004</v>
+        <v>802.9288273958734</v>
       </c>
       <c r="C22" t="n">
-        <v>2824.769373306004</v>
+        <v>633.9926444679666</v>
       </c>
       <c r="D22" t="n">
-        <v>2674.652733893668</v>
+        <v>483.8760050556308</v>
       </c>
       <c r="E22" t="n">
-        <v>2526.739640311275</v>
+        <v>483.8760050556308</v>
       </c>
       <c r="F22" t="n">
-        <v>2379.849692813365</v>
+        <v>483.8760050556308</v>
       </c>
       <c r="G22" t="n">
-        <v>2379.849692813365</v>
+        <v>317.6151975578603</v>
       </c>
       <c r="H22" t="n">
-        <v>2379.849692813365</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>2337.686731866305</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
-        <v>2417.922750296629</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>2679.612012822168</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>3070.010606998108</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
-        <v>3492.020309729143</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>3909.430181389151</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>4278.959462098136</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>4571.634917671695</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>4690.833152398594</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>4690.833152398594</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>4507.978318053499</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>4288.37685307644</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>3999.301626420638</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V22" t="n">
-        <v>3744.617138214751</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="W22" t="n">
-        <v>3455.199968177791</v>
+        <v>1433.359422267661</v>
       </c>
       <c r="X22" t="n">
-        <v>3227.210417279774</v>
+        <v>1205.369871369643</v>
       </c>
       <c r="Y22" t="n">
-        <v>3006.417838136244</v>
+        <v>984.5772922261132</v>
       </c>
     </row>
     <row r="23">
@@ -5986,13 +5986,13 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6001,7 +6001,7 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.422291068009</v>
@@ -6065,28 +6065,28 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J24" t="n">
         <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>251.5626541092265</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
-        <v>746.8882603249853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1344.266747951537</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1344.266747951537</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>869.9745311434716</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>701.0383482155647</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>550.921708803229</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E25" t="n">
-        <v>403.0086152208358</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="F25" t="n">
-        <v>256.1186677229255</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G25" t="n">
-        <v>256.1186677229255</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>2044.506784258106</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1789.822296052219</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1500.405126015259</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1272.415575117241</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>1051.622995973711</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6214,61 +6214,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192602</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111708</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,34 +6299,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>245.2306927803938</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>245.2306927803938</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>842.6091804069456</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1470.207143961552</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>634.4644740681601</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C28" t="n">
-        <v>465.5282911402533</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D28" t="n">
-        <v>465.5282911402533</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E28" t="n">
-        <v>317.6151975578601</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F28" t="n">
-        <v>317.6151975578601</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510509</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854707</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V28" t="n">
-        <v>1554.312238976908</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W28" t="n">
-        <v>1264.895068939947</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X28" t="n">
-        <v>1036.90551804193</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y28" t="n">
-        <v>816.1129388983999</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168618</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192503</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6527,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6536,34 +6536,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>2297.690135143765</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2297.690135143765</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>984.5467179762953</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C31" t="n">
-        <v>815.6105350483884</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D31" t="n">
-        <v>665.4938956360527</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E31" t="n">
-        <v>517.5808020536596</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F31" t="n">
-        <v>370.6908545557492</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.963083580261</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S31" t="n">
-        <v>2446.963083580261</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T31" t="n">
-        <v>2227.361618603202</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U31" t="n">
-        <v>1938.2863919474</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V31" t="n">
-        <v>1683.601903741513</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W31" t="n">
-        <v>1394.184733704552</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X31" t="n">
-        <v>1166.195182806535</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y31" t="n">
-        <v>1166.195182806535</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="32">
@@ -6694,16 +6694,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6712,10 +6712,10 @@
         <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6776,31 +6776,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>579.1554649516144</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1103.652278938886</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1731.250242493492</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>549.6145409888042</v>
+        <v>696.7084350851671</v>
       </c>
       <c r="C34" t="n">
-        <v>549.6145409888042</v>
+        <v>527.7722521572603</v>
       </c>
       <c r="D34" t="n">
-        <v>549.6145409888042</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E34" t="n">
-        <v>549.6145409888042</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487568</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510509</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854707</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.70136564882</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611859</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X34" t="n">
-        <v>952.055584962574</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y34" t="n">
-        <v>731.2630058190439</v>
+        <v>878.3568999154069</v>
       </c>
     </row>
     <row r="35">
@@ -6919,10 +6919,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
         <v>793.7736536168611</v>
@@ -6934,13 +6934,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332386</v>
@@ -6952,7 +6952,7 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6976,10 +6976,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C36" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D36" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G36" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>2233.355914590558</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>2383.002557118213</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>2716.927329289434</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>3212.252935505192</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>3212.252935505192</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>3839.850899059799</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>4267.210002903525</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S36" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T36" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U36" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V36" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W36" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X36" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y36" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2977.325134535463</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>2808.388951607556</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D37" t="n">
-        <v>2714.576476298694</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E37" t="n">
-        <v>2566.663382716301</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F37" t="n">
-        <v>2419.773435218391</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G37" t="n">
-        <v>2419.773435218391</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>4440.9326143059</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>4151.857387650098</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>3897.172899444211</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>3607.75572940725</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>3379.766178509233</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>3158.973599365703</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7150,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362683</v>
@@ -7171,22 +7171,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
         <v>3640.422291068009</v>
@@ -7207,19 +7207,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C39" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D39" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G39" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>2233.355914590558</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>2233.355914590558</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>2567.280686761779</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>2567.280686761779</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>3051.062654156519</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>3678.660617711126</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>4230.570347950413</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>4654.193497445481</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>4654.193497445481</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S39" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T39" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U39" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V39" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W39" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X39" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y39" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="40">
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>558.0193492433381</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>558.0193492433381</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F40" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7332,52 +7332,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2021.626829013775</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1732.551602357973</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1477.867114152086</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1188.449944115125</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>960.4603932171079</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>739.6678140735778</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7399,34 +7399,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C42" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D42" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G42" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>2233.355914590558</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>2383.002557118213</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K42" t="n">
-        <v>2716.927329289434</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L42" t="n">
-        <v>3212.252935505192</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="M42" t="n">
-        <v>3369.710724020923</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N42" t="n">
-        <v>3997.30868757553</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O42" t="n">
-        <v>3997.30868757553</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>4420.931837070598</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>4654.193497445481</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S42" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T42" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U42" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V42" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W42" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X42" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y42" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3047.734188001555</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>2878.798005073648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>2728.681365661313</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E43" t="n">
-        <v>2728.681365661313</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F43" t="n">
-        <v>2728.681365661313</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G43" t="n">
-        <v>2561.485266376193</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H43" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>4221.331149328841</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>3932.255922673039</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>3932.255922673039</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>3642.838752636078</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>3414.849201738061</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>3229.382652831795</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7636,34 +7636,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7724,31 +7724,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K45" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L45" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="M45" t="n">
-        <v>842.6091804069456</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N45" t="n">
-        <v>1470.207143961552</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>2022.116874200839</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>802.9288273958734</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C46" t="n">
-        <v>633.9926444679666</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D46" t="n">
-        <v>483.8760050556308</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E46" t="n">
-        <v>335.9629114732377</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F46" t="n">
-        <v>189.0729639753273</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U46" t="n">
-        <v>1977.461080510508</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V46" t="n">
-        <v>1722.776592304621</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W46" t="n">
-        <v>1433.359422267661</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X46" t="n">
-        <v>1205.369871369643</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y46" t="n">
-        <v>984.5772922261132</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
   </sheetData>
@@ -23424,7 +23424,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23436,7 +23436,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23469,22 +23469,22 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>135.8503182118943</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>132.6809716109911</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23655,22 +23655,22 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>99.76050189075423</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>0.9259388694754875</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23709,7 +23709,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23898,7 +23898,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23907,7 +23907,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23940,13 +23940,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>13.83034628221225</v>
       </c>
       <c r="U19" t="n">
-        <v>126.712610143158</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24129,25 +24129,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0.9259388694760275</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>39.52450498097689</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24183,7 +24183,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24369,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>60.88156453658534</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24420,7 +24420,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24609,19 +24609,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24660,7 +24660,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>119.4047645948075</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24843,22 +24843,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>112.9792378643587</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25077,16 +25077,16 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>106.0841272570752</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25095,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,7 +25125,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25140,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>35.40333084624515</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25314,22 +25314,22 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D37" t="n">
-        <v>55.74112246243868</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25365,7 +25365,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25551,25 +25551,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25602,7 +25602,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>43.72409101823362</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25791,7 +25791,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25803,10 +25803,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25845,7 +25845,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>34.97276993489115</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26028,19 +26028,19 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>71.22040037418695</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26079,7 +26079,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>721501.8738540632</v>
+        <v>721501.8738540633</v>
       </c>
     </row>
     <row r="13">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>721501.8738540633</v>
+        <v>721501.8738540632</v>
       </c>
     </row>
     <row r="16">
@@ -26316,7 +26316,7 @@
         <v>718411.5486312478</v>
       </c>
       <c r="C2" t="n">
-        <v>718411.5486312481</v>
+        <v>718411.5486312479</v>
       </c>
       <c r="D2" t="n">
         <v>718411.5486312479</v>
@@ -26325,10 +26325,10 @@
         <v>706253.2747287556</v>
       </c>
       <c r="F2" t="n">
-        <v>706253.2747287556</v>
+        <v>706253.2747287557</v>
       </c>
       <c r="G2" t="n">
-        <v>706253.2747287554</v>
+        <v>706253.2747287555</v>
       </c>
       <c r="H2" t="n">
         <v>706253.2747287556</v>
@@ -26343,19 +26343,19 @@
         <v>706253.2747287556</v>
       </c>
       <c r="L2" t="n">
+        <v>706253.2747287556</v>
+      </c>
+      <c r="M2" t="n">
+        <v>706253.2747287556</v>
+      </c>
+      <c r="N2" t="n">
+        <v>706253.2747287554</v>
+      </c>
+      <c r="O2" t="n">
         <v>706253.2747287555</v>
       </c>
-      <c r="M2" t="n">
-        <v>706253.2747287555</v>
-      </c>
-      <c r="N2" t="n">
-        <v>706253.2747287556</v>
-      </c>
-      <c r="O2" t="n">
-        <v>706253.2747287557</v>
-      </c>
       <c r="P2" t="n">
-        <v>706253.2747287556</v>
+        <v>706253.2747287552</v>
       </c>
     </row>
     <row r="3">
@@ -26368,16 +26368,16 @@
         <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.07046923605958e-10</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073551</v>
+        <v>325412.4618073552</v>
       </c>
       <c r="F3" t="n">
-        <v>1.797263848857256e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551178</v>
+        <v>85055.02793551184</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,25 +26417,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93596.74410405254</v>
+        <v>93596.74410405252</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.74410405254</v>
+        <v>93596.74410405249</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.74410405252</v>
+        <v>93596.7441040525</v>
       </c>
       <c r="E4" t="n">
+        <v>16046.58397189197</v>
+      </c>
+      <c r="F4" t="n">
+        <v>16046.58397189197</v>
+      </c>
+      <c r="G4" t="n">
+        <v>16046.58397189197</v>
+      </c>
+      <c r="H4" t="n">
         <v>16046.58397189193</v>
-      </c>
-      <c r="F4" t="n">
-        <v>16046.58397189193</v>
-      </c>
-      <c r="G4" t="n">
-        <v>16046.58397189193</v>
-      </c>
-      <c r="H4" t="n">
-        <v>16046.58397189195</v>
       </c>
       <c r="I4" t="n">
         <v>16046.58397189197</v>
@@ -26524,46 +26524,46 @@
         <v>-811863.8817617906</v>
       </c>
       <c r="C6" t="n">
-        <v>516880.8639658022</v>
+        <v>516880.8639658019</v>
       </c>
       <c r="D6" t="n">
         <v>516880.8639658021</v>
       </c>
       <c r="E6" t="n">
-        <v>263671.6991256014</v>
+        <v>263324.3198712444</v>
       </c>
       <c r="F6" t="n">
-        <v>589084.1609329563</v>
+        <v>588736.7816785995</v>
       </c>
       <c r="G6" t="n">
-        <v>589084.1609329563</v>
+        <v>588736.7816785995</v>
       </c>
       <c r="H6" t="n">
-        <v>589084.1609329565</v>
+        <v>588736.7816785995</v>
       </c>
       <c r="I6" t="n">
-        <v>589084.160932956</v>
+        <v>588736.7816785991</v>
       </c>
       <c r="J6" t="n">
-        <v>371552.958535679</v>
+        <v>371205.5792813221</v>
       </c>
       <c r="K6" t="n">
-        <v>589084.1609329565</v>
+        <v>588736.7816785995</v>
       </c>
       <c r="L6" t="n">
-        <v>589084.1609329564</v>
+        <v>588736.7816785995</v>
       </c>
       <c r="M6" t="n">
-        <v>504029.1329974445</v>
+        <v>503681.7537430877</v>
       </c>
       <c r="N6" t="n">
-        <v>589084.1609329565</v>
+        <v>588736.7816785993</v>
       </c>
       <c r="O6" t="n">
-        <v>589084.1609329566</v>
+        <v>588736.7816785994</v>
       </c>
       <c r="P6" t="n">
-        <v>589084.1609329566</v>
+        <v>588736.7816785992</v>
       </c>
     </row>
   </sheetData>
@@ -26740,10 +26740,10 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,16 +26789,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
         <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099649</v>
@@ -26813,10 +26813,10 @@
         <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
@@ -26962,7 +26962,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26971,7 +26971,7 @@
         <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27390,16 +27390,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
         <v>400</v>
-      </c>
-      <c r="G2" t="n">
-        <v>5.189545257670375</v>
       </c>
       <c r="H2" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,10 +27429,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>10.6312382409784</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27441,7 +27441,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27536,22 +27536,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>107.7439527351646</v>
       </c>
       <c r="C4" t="n">
-        <v>6.51028491347455</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>144.7550149143208</v>
@@ -27596,10 +27596,10 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27630,13 +27630,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>358.9881216799599</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -27678,7 +27678,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>144.4081242791055</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27742,7 +27742,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>-9.481304630298837e-13</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -27773,25 +27773,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>107.7439527351641</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
         <v>96.35242040983809</v>
@@ -27821,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
@@ -27833,13 +27833,13 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>198.9759551627478</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27858,7 +27858,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>213.1539192908504</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27867,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>124.4997876986425</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27906,10 +27906,10 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -28016,16 +28016,16 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>107.7439527351642</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
@@ -28058,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
@@ -28070,13 +28070,13 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>265.6179578378798</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28104,10 +28104,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>-5.820141602602879e-14</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>-6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28140,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>-6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>-6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>-6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>-6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>-6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>-6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>-6.496390726949487e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -28341,10 +28341,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>-5.820141602602879e-14</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>-6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28377,25 +28377,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>-6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>-6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>-6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>-6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>-6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>-6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>-6.496390726949487e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -28563,25 +28563,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>-6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>-6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>-6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>-6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>-6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>-6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28614,25 +28614,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>-6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>-6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>-6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>-6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>-6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>-6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>-6.496390726949487e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -31278,7 +31278,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H5" t="n">
         <v>44.86703772844668</v>
@@ -31287,40 +31287,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T5" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,46 +31357,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q6" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31439,43 +31439,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L7" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U7" t="n">
         <v>0.1071911508780295</v>
@@ -31515,7 +31515,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H8" t="n">
         <v>44.86703772844668</v>
@@ -31524,40 +31524,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T8" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,46 +31594,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233467</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q9" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31676,43 +31676,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L10" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U10" t="n">
         <v>0.1071911508780295</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,34 +31831,34 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>351.1157147121651</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -31867,13 +31867,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32001,7 +32001,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817571</v>
       </c>
       <c r="L14" t="n">
         <v>867.8464071162563</v>
@@ -32077,13 +32077,13 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862122</v>
@@ -32092,16 +32092,16 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>169.6252075171348</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742439</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>164.2853229338202</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162575</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>101.3076196007749</v>
@@ -32554,37 +32554,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>650.2626573149951</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>198.5607970756955</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460016</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
@@ -32791,37 +32791,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>144.2373595085334</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,43 +32937,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J26" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
@@ -33028,37 +33028,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>535.8585467435946</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,43 +33174,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>360.9226811202611</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
@@ -33502,37 +33502,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>671.9287955253226</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817562</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
@@ -33739,22 +33739,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>574.2721069128547</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33763,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>630.8026878560993</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>301.1823051500289</v>
+        <v>734.2678383622665</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34392,7 +34392,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S44" t="n">
         <v>125.31755462929</v>
@@ -34444,10 +34444,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
         <v>137.841438974359</v>
@@ -34456,7 +34456,7 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>734.2678383622665</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
@@ -34465,13 +34465,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>434.6640573992324</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N5" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,25 +35014,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q6" t="n">
         <v>159.2338966127272</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034292</v>
       </c>
       <c r="K7" t="n">
-        <v>99.30389319966704</v>
+        <v>99.3038931996671</v>
       </c>
       <c r="L7" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286438</v>
       </c>
       <c r="M7" t="n">
         <v>169.1237184840382</v>
       </c>
       <c r="N7" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230784</v>
       </c>
       <c r="O7" t="n">
-        <v>139.3114638567573</v>
+        <v>139.3114638567574</v>
       </c>
       <c r="P7" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106939</v>
       </c>
       <c r="Q7" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014223</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N8" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,25 +35251,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013284</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q9" t="n">
         <v>159.2338966127272</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034292</v>
       </c>
       <c r="K10" t="n">
-        <v>99.30389319966704</v>
+        <v>99.3038931996671</v>
       </c>
       <c r="L10" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286438</v>
       </c>
       <c r="M10" t="n">
         <v>169.1237184840382</v>
       </c>
       <c r="N10" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230784</v>
       </c>
       <c r="O10" t="n">
-        <v>139.3114638567573</v>
+        <v>139.3114638567574</v>
       </c>
       <c r="P10" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106939</v>
       </c>
       <c r="Q10" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014223</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,28 +35485,28 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>213.2742757378061</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35649,7 +35649,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367765</v>
       </c>
       <c r="L14" t="n">
         <v>632.079992146269</v>
@@ -35725,13 +35725,13 @@
         <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
@@ -35740,16 +35740,16 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>23.94570355317081</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,31 +35959,31 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>25.73094315394598</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462702</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36205,25 +36205,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>508.1286233929767</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>55.96455263125101</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243148</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,31 +36433,31 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>6.395920534174421</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,34 +36670,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>393.2623022991502</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36916,25 +36916,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>220.9409070342396</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37153,25 +37153,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>529.7947616033042</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367756</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37390,19 +37390,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>431.6758624684103</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,34 +37618,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>488.668653934081</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,34 +37855,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>159.0482712280106</v>
+        <v>592.1338044402481</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38040,7 +38040,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,10 +38092,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -38104,7 +38104,7 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>592.1338044402481</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
@@ -38113,13 +38113,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>300.6896499849021</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_25_35.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_25_35.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3130674.79778763</v>
+        <v>3132435.328090416</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>416855.1052283182</v>
       </c>
     </row>
     <row r="9">
@@ -664,7 +664,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -673,10 +673,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
         <v>41.57692977292595</v>
@@ -709,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>193.2867318986417</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>336.9049854834702</v>
       </c>
     </row>
     <row r="3">
@@ -752,7 +752,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>134.9994691657081</v>
+        <v>134.9994691657079</v>
       </c>
       <c r="H3" t="n">
         <v>89.59687541851115</v>
@@ -816,13 +816,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>72.0880274467727</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -831,7 +831,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>206.8973285420759</v>
       </c>
     </row>
     <row r="5">
@@ -910,10 +910,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>51.9336039734935</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>188.605944229152</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -946,13 +946,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -961,10 +961,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -995,7 +995,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,10 +1022,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734107401</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T6" t="n">
         <v>190.7165703189231</v>
@@ -1053,28 +1053,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>72.08802744677315</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1110,13 +1110,13 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>210.8180784218843</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1147,10 +1147,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>286.421937954811</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>218.8748435506832</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1183,10 +1183,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1229,10 +1229,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I9" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247746</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,10 +1259,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098773</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1290,25 +1290,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>58.28185552386401</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1347,10 +1347,10 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>137.4916259720325</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1581,16 +1581,16 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>150.6726801246967</v>
       </c>
       <c r="U13" t="n">
-        <v>150.3341561773498</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1621,7 +1621,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1675,7 +1675,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>386.237938656054</v>
       </c>
     </row>
     <row r="15">
@@ -1770,22 +1770,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>102.6244980900708</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>139.3687739767484</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1858,7 +1858,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2007,22 +2007,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>1.79977260571659</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>203.575104045076</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2070,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2098,7 +2098,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695619</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2244,7 +2244,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2253,13 +2253,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>164.5981994227928</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428212</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2295,7 +2295,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2320,7 +2320,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710079</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -2368,13 +2368,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2481,22 +2481,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>102.1557845699813</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>19.865078448883</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2541,7 +2541,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2718,10 +2718,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>9.146142788179482</v>
+        <v>0.2811815126423244</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2769,7 +2769,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2803,7 +2803,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
         <v>409.8033385187866</v>
@@ -2842,10 +2842,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U29" t="n">
         <v>250.9057009881286</v>
@@ -2952,7 +2952,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812055</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2970,7 +2970,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3189,10 +3189,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812055</v>
       </c>
       <c r="D34" t="n">
-        <v>42.5313457611372</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3207,7 +3207,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3277,7 +3277,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>409.8033385187866</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3426,7 +3426,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>28.75188085812005</v>
+        <v>28.75188085812055</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3444,7 +3444,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3517,7 +3517,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3666,10 +3666,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3678,7 +3678,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3717,10 +3717,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>186.043578126349</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3903,22 +3903,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>172.026033500079</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4152,7 +4152,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1285.277735635578</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C2" t="n">
-        <v>916.3152186951659</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D2" t="n">
-        <v>916.3152186951659</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E2" t="n">
-        <v>530.5269660969217</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F2" t="n">
-        <v>119.5410613073142</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T2" t="n">
-        <v>3020.076030006325</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U2" t="n">
-        <v>2766.545553280162</v>
+        <v>3072.075344883006</v>
       </c>
       <c r="V2" t="n">
-        <v>2435.482665936591</v>
+        <v>3072.075344883006</v>
       </c>
       <c r="W2" t="n">
-        <v>2435.482665936591</v>
+        <v>3072.075344883006</v>
       </c>
       <c r="X2" t="n">
-        <v>2062.016907675511</v>
+        <v>3072.075344883006</v>
       </c>
       <c r="Y2" t="n">
-        <v>1671.877575699699</v>
+        <v>2731.767278738087</v>
       </c>
     </row>
     <row r="3">
@@ -4385,28 +4385,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D3" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G3" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J3" t="n">
         <v>160.1893859228007</v>
@@ -4415,7 +4415,7 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>848.0708164780106</v>
+        <v>530.2513404403937</v>
       </c>
       <c r="C4" t="n">
-        <v>679.1346335501037</v>
+        <v>361.3151575124868</v>
       </c>
       <c r="D4" t="n">
-        <v>529.0179941377679</v>
+        <v>361.3151575124868</v>
       </c>
       <c r="E4" t="n">
-        <v>381.1049005553748</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F4" t="n">
-        <v>234.2149530574645</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K4" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L4" t="n">
         <v>332.3555681596505</v>
       </c>
       <c r="M4" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N4" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O4" t="n">
-        <v>809.0152357068856</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P4" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q4" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R4" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S4" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T4" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U4" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V4" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="W4" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="X4" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="Y4" t="n">
-        <v>920.887005818185</v>
+        <v>711.8998052706335</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1642.972675199009</v>
+        <v>2196.097994299122</v>
       </c>
       <c r="C5" t="n">
-        <v>1274.010158258597</v>
+        <v>1827.13547735871</v>
       </c>
       <c r="D5" t="n">
-        <v>915.7444596518469</v>
+        <v>1468.86977875196</v>
       </c>
       <c r="E5" t="n">
-        <v>529.9562070536026</v>
+        <v>1083.081526153716</v>
       </c>
       <c r="F5" t="n">
-        <v>118.9703022639951</v>
+        <v>672.0956213641082</v>
       </c>
       <c r="G5" t="n">
-        <v>66.51211643218343</v>
+        <v>257.0231712091046</v>
       </c>
       <c r="H5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J5" t="n">
-        <v>255.391247391209</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810556</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520489</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794325</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="V5" t="n">
-        <v>2755.806928794325</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="W5" t="n">
-        <v>2403.038273524211</v>
+        <v>2972.837166339056</v>
       </c>
       <c r="X5" t="n">
-        <v>2029.572515263131</v>
+        <v>2972.837166339056</v>
       </c>
       <c r="Y5" t="n">
-        <v>2029.572515263131</v>
+        <v>2582.697834363244</v>
       </c>
     </row>
     <row r="6">
@@ -4622,52 +4622,52 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158137</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
         <v>2564.909189125856</v>
@@ -4679,7 +4679,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4688,10 +4688,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>848.0708164780106</v>
+        <v>163.837793613838</v>
       </c>
       <c r="C7" t="n">
-        <v>679.1346335501037</v>
+        <v>163.837793613838</v>
       </c>
       <c r="D7" t="n">
-        <v>529.0179941377679</v>
+        <v>163.837793613838</v>
       </c>
       <c r="E7" t="n">
-        <v>381.1049005553748</v>
+        <v>163.837793613838</v>
       </c>
       <c r="F7" t="n">
-        <v>234.2149530574645</v>
+        <v>163.837793613838</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218343</v>
+        <v>163.837793613838</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218343</v>
+        <v>163.837793613838</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962291</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K7" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L7" t="n">
-        <v>332.3555681596507</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M7" t="n">
-        <v>499.7880494588485</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N7" t="n">
-        <v>671.0968864886961</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O7" t="n">
-        <v>809.015235706886</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P7" t="n">
-        <v>907.9662384596446</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q7" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R7" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S7" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T7" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U7" t="n">
-        <v>920.8870058181855</v>
+        <v>707.9394518566855</v>
       </c>
       <c r="V7" t="n">
-        <v>920.8870058181855</v>
+        <v>453.2549636507987</v>
       </c>
       <c r="W7" t="n">
-        <v>920.8870058181855</v>
+        <v>163.837793613838</v>
       </c>
       <c r="X7" t="n">
-        <v>920.8870058181855</v>
+        <v>163.837793613838</v>
       </c>
       <c r="Y7" t="n">
-        <v>920.8870058181855</v>
+        <v>163.837793613838</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1879.829578210441</v>
+        <v>1822.632236038042</v>
       </c>
       <c r="C8" t="n">
-        <v>1510.867061270029</v>
+        <v>1453.669719097631</v>
       </c>
       <c r="D8" t="n">
-        <v>1152.601362663279</v>
+        <v>1095.40402049088</v>
       </c>
       <c r="E8" t="n">
-        <v>766.8131100650344</v>
+        <v>709.6157678926361</v>
       </c>
       <c r="F8" t="n">
-        <v>355.8272052754268</v>
+        <v>298.6298631030285</v>
       </c>
       <c r="G8" t="n">
-        <v>66.51211643218343</v>
+        <v>287.5978169884291</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K8" t="n">
         <v>589.2106210810555</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520489</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U8" t="n">
-        <v>3009.337405520489</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="V8" t="n">
-        <v>3009.337405520489</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="W8" t="n">
-        <v>2656.568750250374</v>
+        <v>2972.837166339056</v>
       </c>
       <c r="X8" t="n">
-        <v>2656.568750250374</v>
+        <v>2599.371408077976</v>
       </c>
       <c r="Y8" t="n">
-        <v>2266.429418274563</v>
+        <v>2209.232076102164</v>
       </c>
     </row>
     <row r="9">
@@ -4874,31 +4874,31 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158137</v>
+        <v>765.1517452158128</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
         <v>2407.411984886741</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>739.2385409879457</v>
+        <v>527.322087337517</v>
       </c>
       <c r="C10" t="n">
-        <v>570.3023580600388</v>
+        <v>527.322087337517</v>
       </c>
       <c r="D10" t="n">
-        <v>420.1857186477031</v>
+        <v>527.322087337517</v>
       </c>
       <c r="E10" t="n">
-        <v>272.27262506531</v>
+        <v>527.322087337517</v>
       </c>
       <c r="F10" t="n">
-        <v>125.3826775673996</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218343</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962291</v>
+        <v>78.33486996962282</v>
       </c>
       <c r="K10" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372931</v>
       </c>
       <c r="L10" t="n">
-        <v>332.3555681596507</v>
+        <v>332.3555681596503</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588485</v>
+        <v>499.7880494588479</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886961</v>
+        <v>671.0968864886953</v>
       </c>
       <c r="O10" t="n">
-        <v>809.015235706886</v>
+        <v>809.0152357068849</v>
       </c>
       <c r="P10" t="n">
-        <v>907.9662384596446</v>
+        <v>907.9662384596435</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="R10" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="S10" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="T10" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="U10" t="n">
-        <v>920.8870058181855</v>
+        <v>782.0065755434039</v>
       </c>
       <c r="V10" t="n">
-        <v>920.8870058181855</v>
+        <v>527.322087337517</v>
       </c>
       <c r="W10" t="n">
-        <v>920.8870058181855</v>
+        <v>527.322087337517</v>
       </c>
       <c r="X10" t="n">
-        <v>920.8870058181855</v>
+        <v>527.322087337517</v>
       </c>
       <c r="Y10" t="n">
-        <v>920.8870058181855</v>
+        <v>527.322087337517</v>
       </c>
     </row>
     <row r="11">
@@ -5044,16 +5044,16 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332389</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
         <v>3640.422291068011</v>
@@ -5126,16 +5126,16 @@
         <v>579.1554649516144</v>
       </c>
       <c r="L12" t="n">
-        <v>1074.481071167373</v>
+        <v>980.1499206998682</v>
       </c>
       <c r="M12" t="n">
-        <v>1671.859558793925</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N12" t="n">
-        <v>2299.457522348532</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P12" t="n">
         <v>2553.061288060775</v>
@@ -5229,13 +5229,13 @@
         <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>2197.062545487568</v>
+        <v>2044.867919098985</v>
       </c>
       <c r="U13" t="n">
-        <v>2045.209862480144</v>
+        <v>1755.792692443183</v>
       </c>
       <c r="V13" t="n">
-        <v>1790.525374274257</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="W13" t="n">
         <v>1501.108204237296</v>
@@ -5257,7 +5257,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5266,7 +5266,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
@@ -5418,19 +5418,19 @@
         <v>633.992644467967</v>
       </c>
       <c r="D16" t="n">
-        <v>483.8760050556313</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E16" t="n">
-        <v>483.8760050556313</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F16" t="n">
-        <v>483.8760050556313</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G16" t="n">
-        <v>316.6799057705112</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797189</v>
@@ -5494,7 +5494,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5503,7 +5503,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5512,16 +5512,16 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
         <v>2206.55866301478</v>
@@ -5533,7 +5533,7 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852256</v>
@@ -5548,7 +5548,7 @@
         <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
         <v>3820.749612123003</v>
@@ -5591,7 +5591,7 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J18" t="n">
         <v>245.2306927803938</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>931.4710609784064</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C19" t="n">
-        <v>762.5348780504995</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D19" t="n">
-        <v>612.4182386381638</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E19" t="n">
-        <v>464.5051450557706</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F19" t="n">
-        <v>317.6151975578603</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578603</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H19" t="n">
         <v>175.9033664000583</v>
@@ -5673,52 +5673,52 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>2174.285961605313</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1885.210734949511</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1630.526246743624</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1341.109076706663</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>1113.119525808646</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>1113.119525808646</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5731,7 +5731,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5740,34 +5740,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694708</v>
@@ -5779,13 +5779,13 @@
         <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
         <v>3820.749612123003</v>
@@ -5828,22 +5828,22 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J21" t="n">
         <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516144</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="L21" t="n">
-        <v>579.1554649516144</v>
+        <v>634.5603720565524</v>
       </c>
       <c r="M21" t="n">
-        <v>1176.533952578166</v>
+        <v>1231.938859683104</v>
       </c>
       <c r="N21" t="n">
-        <v>1804.131916132773</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O21" t="n">
         <v>1859.536823237711</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>802.9288273958734</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C22" t="n">
-        <v>633.9926444679666</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D22" t="n">
-        <v>483.8760050556308</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E22" t="n">
-        <v>483.8760050556308</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F22" t="n">
-        <v>483.8760050556308</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578603</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1977.461080510508</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1722.776592304621</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1433.359422267661</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>1205.369871369643</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>984.5772922261132</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="23">
@@ -5986,10 +5986,10 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
@@ -6001,28 +6001,28 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
         <v>3820.749612123003</v>
@@ -6065,7 +6065,7 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J24" t="n">
         <v>245.2306927803938</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>741.843151638089</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>572.9069687101821</v>
       </c>
       <c r="D25" t="n">
-        <v>241.729756630365</v>
+        <v>422.7903292978464</v>
       </c>
       <c r="E25" t="n">
-        <v>93.81666304797189</v>
+        <v>422.7903292978464</v>
       </c>
       <c r="F25" t="n">
-        <v>93.81666304797189</v>
+        <v>422.7903292978464</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797189</v>
+        <v>255.5942300127263</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797189</v>
+        <v>113.8823988549244</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>923.4916164683287</v>
       </c>
     </row>
     <row r="26">
@@ -6217,31 +6217,31 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J26" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6302,13 +6302,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
         <v>1074.481071167373</v>
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>869.6905094135296</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908939</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908939</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G28" t="n">
         <v>235.5284942057738</v>
@@ -6384,52 +6384,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2437.724555511392</v>
+        <v>2446.679061850319</v>
       </c>
       <c r="S28" t="n">
-        <v>2254.869721166297</v>
+        <v>2263.824227505223</v>
       </c>
       <c r="T28" t="n">
-        <v>2035.268256189238</v>
+        <v>2044.222762528164</v>
       </c>
       <c r="U28" t="n">
-        <v>1746.193029533436</v>
+        <v>2044.222762528164</v>
       </c>
       <c r="V28" t="n">
-        <v>1491.508541327549</v>
+        <v>1789.538274322277</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.091371290588</v>
+        <v>1500.121104285317</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925706</v>
+        <v>1272.131553387299</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490405</v>
+        <v>1051.338974243769</v>
       </c>
     </row>
     <row r="29">
@@ -6445,10 +6445,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
         <v>793.7736536168611</v>
@@ -6460,25 +6460,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J29" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6499,13 +6499,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6539,13 +6539,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
         <v>1074.481071167373</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="32">
@@ -6691,22 +6691,22 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
         <v>2206.558663014778</v>
@@ -6715,13 +6715,13 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6776,13 +6776,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
         <v>1074.481071167373</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>696.7084350851671</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C34" t="n">
-        <v>527.7722521572603</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D34" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E34" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>1327.139029956954</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>1099.149479058937</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y34" t="n">
-        <v>878.3568999154069</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="35">
@@ -6919,10 +6919,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
         <v>793.7736536168611</v>
@@ -6931,55 +6931,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7001,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7010,16 +7010,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L36" t="n">
         <v>1074.481071167373</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C37" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D37" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E37" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H37" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="38">
@@ -7156,34 +7156,34 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
         <v>2950.898526355937</v>
@@ -7250,13 +7250,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
         <v>1074.481071167373</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>869.6905094135296</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121643</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G40" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7332,52 +7332,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1789.538274322277</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1789.538274322277</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1500.121104285317</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>1272.131553387299</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>1051.338974243769</v>
       </c>
     </row>
     <row r="41">
@@ -7387,52 +7387,52 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7444,19 +7444,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7487,31 +7487,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121643</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121643</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121643</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G43" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="44">
@@ -7636,7 +7636,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362687</v>
@@ -7645,22 +7645,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
         <v>3640.422291068009</v>
@@ -7724,31 +7724,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7806,52 +7806,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
   </sheetData>
@@ -23469,16 +23469,16 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>66.73277020259161</v>
       </c>
       <c r="U13" t="n">
-        <v>135.8503182118943</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23658,22 +23658,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>45.99097492814151</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0.9259388694754875</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23895,19 +23895,19 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>138.4949402405073</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23940,10 +23940,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>13.83034628221225</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24132,7 +24132,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24141,13 +24141,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0.9259388694760275</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24183,7 +24183,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24369,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>46.45968844823102</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>61.40075786968251</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24429,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24606,10 +24606,10 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24621,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>57.2291039219422</v>
+        <v>66.09406519747934</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24657,7 +24657,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24840,7 +24840,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>138.4949402405073</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24858,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -25077,10 +25077,10 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>138.4949402405073</v>
       </c>
       <c r="D34" t="n">
-        <v>106.0841272570752</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25125,7 +25125,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25314,7 +25314,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>138.4949402405078</v>
+        <v>138.4949402405073</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25554,10 +25554,10 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25566,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25605,10 +25605,10 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>100.1408962628951</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25791,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>114.1584408891651</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26040,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>721501.8738540633</v>
+        <v>721501.8738540632</v>
       </c>
     </row>
     <row r="13">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>721501.8738540632</v>
+        <v>721501.8738540633</v>
       </c>
     </row>
     <row r="16">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>718411.5486312479</v>
+      </c>
+      <c r="C2" t="n">
         <v>718411.5486312478</v>
-      </c>
-      <c r="C2" t="n">
-        <v>718411.5486312479</v>
       </c>
       <c r="D2" t="n">
         <v>718411.5486312479</v>
       </c>
       <c r="E2" t="n">
+        <v>706253.2747287555</v>
+      </c>
+      <c r="F2" t="n">
+        <v>706253.2747287555</v>
+      </c>
+      <c r="G2" t="n">
         <v>706253.2747287556</v>
-      </c>
-      <c r="F2" t="n">
-        <v>706253.2747287557</v>
-      </c>
-      <c r="G2" t="n">
-        <v>706253.2747287555</v>
       </c>
       <c r="H2" t="n">
         <v>706253.2747287556</v>
       </c>
       <c r="I2" t="n">
-        <v>706253.2747287552</v>
+        <v>706253.2747287555</v>
       </c>
       <c r="J2" t="n">
-        <v>706253.2747287556</v>
+        <v>706253.2747287555</v>
       </c>
       <c r="K2" t="n">
-        <v>706253.2747287556</v>
+        <v>706253.2747287557</v>
       </c>
       <c r="L2" t="n">
-        <v>706253.2747287556</v>
+        <v>706253.2747287557</v>
       </c>
       <c r="M2" t="n">
-        <v>706253.2747287556</v>
+        <v>706253.2747287557</v>
       </c>
       <c r="N2" t="n">
         <v>706253.2747287554</v>
       </c>
       <c r="O2" t="n">
-        <v>706253.2747287555</v>
+        <v>706253.2747287554</v>
       </c>
       <c r="P2" t="n">
-        <v>706253.2747287552</v>
+        <v>706253.2747287556</v>
       </c>
     </row>
     <row r="3">
@@ -26368,13 +26368,13 @@
         <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
-        <v>2.07046923605958e-10</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>325412.4618073558</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972774</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551184</v>
+        <v>85055.02793551199</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93596.74410405252</v>
+        <v>93596.74410405257</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.74410405249</v>
+        <v>93596.74410405257</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.7441040525</v>
+        <v>93596.74410405257</v>
       </c>
       <c r="E4" t="n">
         <v>16046.58397189197</v>
@@ -26435,7 +26435,7 @@
         <v>16046.58397189197</v>
       </c>
       <c r="H4" t="n">
-        <v>16046.58397189193</v>
+        <v>16046.58397189197</v>
       </c>
       <c r="I4" t="n">
         <v>16046.58397189197</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-811863.8817617906</v>
+        <v>-811863.8817617905</v>
       </c>
       <c r="C6" t="n">
-        <v>516880.8639658019</v>
+        <v>516880.863965802</v>
       </c>
       <c r="D6" t="n">
-        <v>516880.8639658021</v>
+        <v>516880.8639658025</v>
       </c>
       <c r="E6" t="n">
-        <v>263324.3198712444</v>
+        <v>263636.9612001649</v>
       </c>
       <c r="F6" t="n">
-        <v>588736.7816785995</v>
+        <v>589049.4230075206</v>
       </c>
       <c r="G6" t="n">
-        <v>588736.7816785995</v>
+        <v>589049.4230075208</v>
       </c>
       <c r="H6" t="n">
-        <v>588736.7816785995</v>
+        <v>589049.4230075208</v>
       </c>
       <c r="I6" t="n">
-        <v>588736.7816785991</v>
+        <v>589049.4230075206</v>
       </c>
       <c r="J6" t="n">
-        <v>371205.5792813221</v>
+        <v>371518.2206102433</v>
       </c>
       <c r="K6" t="n">
-        <v>588736.7816785995</v>
+        <v>589049.423007521</v>
       </c>
       <c r="L6" t="n">
-        <v>588736.7816785995</v>
+        <v>589049.423007521</v>
       </c>
       <c r="M6" t="n">
-        <v>503681.7537430877</v>
+        <v>503994.3950720088</v>
       </c>
       <c r="N6" t="n">
-        <v>588736.7816785993</v>
+        <v>589049.4230075206</v>
       </c>
       <c r="O6" t="n">
-        <v>588736.7816785994</v>
+        <v>589049.4230075206</v>
       </c>
       <c r="P6" t="n">
-        <v>588736.7816785992</v>
+        <v>589049.4230075208</v>
       </c>
     </row>
   </sheetData>
@@ -26740,10 +26740,10 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099649</v>
@@ -26822,7 +26822,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
@@ -26962,13 +26962,13 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483761</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973561</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022923</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973563</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973561</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27384,7 +27384,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27393,10 +27393,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27429,25 +27429,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>10.6312382409784</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>49.33295317258342</v>
       </c>
     </row>
     <row r="3">
@@ -27536,13 +27536,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>107.7439527351646</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27551,7 +27551,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
         <v>144.7550149143208</v>
@@ -27605,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>11.68732481001891</v>
       </c>
     </row>
     <row r="5">
@@ -27630,13 +27630,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>358.9881216799599</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>106.0018201581684</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,13 +27666,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27681,10 +27681,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27742,7 +27742,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>-9.481304630298837e-13</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -27773,28 +27773,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>107.7439527351641</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
@@ -27830,13 +27830,13 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>75.39375978372854</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27867,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>124.4997876986425</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>75.73292083663731</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,10 +27903,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
@@ -27918,7 +27918,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28010,28 +28010,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>107.7439527351642</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004737</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
@@ -28067,10 +28067,10 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>148.7202122335804</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -31278,7 +31278,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H5" t="n">
         <v>44.86703772844668</v>
@@ -31287,40 +31287,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R5" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T5" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,46 +31357,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q6" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31439,43 +31439,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P7" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U7" t="n">
         <v>0.1071911508780295</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I8" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J8" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003812</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095025</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781691</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R8" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T8" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,46 +31594,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233467</v>
+        <v>593.9283018233488</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970251</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H10" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J10" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L10" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P10" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31846,19 +31846,19 @@
         <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>543.5992845760902</v>
       </c>
       <c r="M12" t="n">
         <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>101.3076196007749</v>
@@ -32317,16 +32317,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
         <v>398.7616643558013</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162575</v>
+        <v>867.8464071162557</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>101.3076196007749</v>
@@ -32554,37 +32554,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>531.8166820790243</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>198.5607970756955</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R21" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
@@ -32791,16 +32791,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
         <v>398.7616643558013</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,43 +32937,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J26" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
@@ -33028,16 +33028,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
         <v>398.7616643558013</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,43 +33174,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
@@ -33265,16 +33265,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
         <v>398.7616643558013</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
@@ -33502,16 +33502,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
         <v>398.7616643558013</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
@@ -33739,16 +33739,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
         <v>398.7616643558013</v>
@@ -33763,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33897,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
@@ -33976,16 +33976,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
         <v>398.7616643558013</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34134,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N5" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P5" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,25 +35014,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
         <v>159.2338966127272</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>11.94217529034292</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K7" t="n">
-        <v>99.3038931996671</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L7" t="n">
-        <v>157.2826706286438</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M7" t="n">
         <v>169.1237184840382</v>
       </c>
       <c r="N7" t="n">
-        <v>173.0392293230784</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O7" t="n">
-        <v>139.3114638567574</v>
+        <v>139.3114638567573</v>
       </c>
       <c r="P7" t="n">
-        <v>99.95050783106939</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q7" t="n">
-        <v>13.05128016014223</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687124</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554003</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923318</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129115</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882189</v>
       </c>
       <c r="P8" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193715</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037193</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222467</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597716</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013284</v>
+        <v>451.7942679013304</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>11.94217529034292</v>
+        <v>11.94217529034283</v>
       </c>
       <c r="K10" t="n">
-        <v>99.3038931996671</v>
+        <v>99.30389319966696</v>
       </c>
       <c r="L10" t="n">
-        <v>157.2826706286438</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M10" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N10" t="n">
-        <v>173.0392293230784</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O10" t="n">
-        <v>139.3114638567574</v>
+        <v>139.3114638567572</v>
       </c>
       <c r="P10" t="n">
-        <v>99.95050783106939</v>
+        <v>99.95050783106922</v>
       </c>
       <c r="Q10" t="n">
-        <v>13.05128016014223</v>
+        <v>13.05128016014211</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35494,19 +35494,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>405.044904796216</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>256.1654199113569</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35968,13 +35968,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
         <v>256.1654199113569</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462702</v>
+        <v>632.0799921462684</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,34 +36196,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>393.2623022991501</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>55.96455263125101</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36442,13 +36442,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
         <v>256.1654199113569</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317809</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36679,13 +36679,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
         <v>256.1654199113569</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317809</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36916,13 +36916,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
         <v>256.1654199113569</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37153,13 +37153,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
         <v>256.1654199113569</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37390,13 +37390,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
         <v>256.1654199113569</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37627,13 +37627,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
         <v>256.1654199113569</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,34 +37855,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,34 +38092,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
